--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DA877-45E0-4D6B-9981-9676A1F0A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="401">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -781,9 +783,6 @@
   </si>
   <si>
     <t>AcctCode = ,AND CustNo = ,AND FacmNo = ,AND OpenAcDate =</t>
-  </si>
-  <si>
-    <t>RvNo Desc</t>
   </si>
   <si>
     <t>useL2062Eq</t>
@@ -1629,11 +1628,23 @@
     <t>起帳/銷帳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>RvNo Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC,AcctCode ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2365,9 +2376,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2524,6 +2535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2559,6 +2587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2734,11 +2779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2874,10 +2919,10 @@
         <v>84</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2948,7 +2993,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2970,7 +3015,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3076,7 +3121,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3098,7 +3143,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3110,7 +3155,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
@@ -3120,7 +3165,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3202,7 +3247,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3232,7 +3277,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -3241,10 +3286,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="96" t="s">
         <v>366</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>367</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>83</v>
@@ -3254,7 +3299,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3276,7 +3321,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3342,7 +3387,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1">
@@ -3351,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
@@ -3364,7 +3409,7 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3386,7 +3431,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3408,7 +3453,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1">
@@ -3538,12 +3583,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3628,7 +3673,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3639,7 +3684,7 @@
         <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
@@ -3661,81 +3706,81 @@
         <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C11" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>182</v>
@@ -3749,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,7 +3844,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3807,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>177</v>
@@ -3820,10 +3865,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3831,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>352</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>83</v>
@@ -3844,10 +3889,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3855,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3868,10 +3913,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3885,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4514,581 +4559,581 @@
   <sheetData>
     <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="78"/>
       <c r="F2" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="H2" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="78" t="s">
-        <v>249</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="N2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
       <c r="A3" s="91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K3" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="L3" s="86" t="s">
-        <v>236</v>
-      </c>
       <c r="M3" s="86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O3" s="86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q3" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J4" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K4" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L4" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M4" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N4" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O4" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P4" s="80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" s="85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J5" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K5" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M5" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I6" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J6" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K6" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L6" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M6" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="O6" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="84" t="s">
         <v>272</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J7" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K7" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L7" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M7" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="N7" s="80" t="s">
-        <v>272</v>
-      </c>
       <c r="O7" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>317</v>
-      </c>
       <c r="F8" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>320</v>
-      </c>
       <c r="H8" s="82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I8" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J8" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K8" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="80" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="80" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="G9" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>320</v>
-      </c>
       <c r="H9" s="82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I9" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J9" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K9" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="80" t="s">
         <v>235</v>
-      </c>
-      <c r="L9" s="80" t="s">
-        <v>236</v>
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J10" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K10" s="79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L10" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="81">
         <v>310</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="79" t="s">
+      <c r="H11" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="81">
         <v>320</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="79" t="s">
+      <c r="H12" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="81">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F13" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="79" t="s">
+      <c r="H13" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="81">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F14" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="79" t="s">
+      <c r="H14" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="F15" s="82"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="79" t="s">
+      <c r="H16" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -5096,22 +5141,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="79" t="s">
+      <c r="H17" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
@@ -5119,22 +5164,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="79" t="s">
+      <c r="H18" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -5142,22 +5187,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="79" t="s">
+      <c r="H19" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>333</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -5165,76 +5210,76 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>362</v>
-      </c>
       <c r="D20" s="79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>346</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>286</v>
-      </c>
       <c r="I21" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J21" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J21" s="77" t="s">
-        <v>303</v>
-      </c>
       <c r="K21" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L21" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P21" s="79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -5244,22 +5289,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -5276,49 +5321,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="P25" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q25" s="79" t="s">
         <v>296</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>299</v>
-      </c>
-      <c r="N25" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5331,100 +5376,100 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="84" t="s">
-        <v>312</v>
-      </c>
       <c r="D28" s="84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I28" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K28" s="79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L28" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="79" t="s">
-        <v>279</v>
-      </c>
       <c r="D29" s="84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I29" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K29" s="79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L29" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P29" s="84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DA877-45E0-4D6B-9981-9676A1F0A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7443CE7D-AAB9-4218-881A-739556FCE447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="400">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1633,11 +1633,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AcctCode ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC,AcctCode ASC</t>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3587,8 +3583,8 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3728,7 +3724,7 @@
         <v>370</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
@@ -3750,7 +3746,7 @@
         <v>371</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7443CE7D-AAB9-4218-881A-739556FCE447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="408">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -263,10 +262,6 @@
   <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxCd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode</t>
@@ -1621,26 +1616,62 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>起帳/銷帳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳/銷帳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RvNo Desc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳/銷帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenKinBr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTlrNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxtNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳單位別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2043,7 +2074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,12 +2232,6 @@
       <alignment vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2372,9 +2397,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2531,23 +2556,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2583,23 +2591,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2775,11 +2766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2794,23 +2785,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2822,12 +2813,12 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2837,10 +2828,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -2848,12 +2839,12 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2861,12 +2852,12 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2874,10 +2865,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="7"/>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -2912,20 +2903,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2934,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -2954,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>21</v>
@@ -2967,7 +2958,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="178.2">
@@ -2979,7 +2970,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -2989,7 +2980,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3001,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -3011,7 +3002,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3020,20 +3011,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="D14" s="73" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="32">
         <v>5</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3042,10 +3033,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>58</v>
@@ -3055,7 +3046,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1">
@@ -3107,17 +3098,17 @@
         <v>57</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3126,20 +3117,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3148,20 +3139,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3192,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>37</v>
@@ -3240,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3260,10 +3251,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
@@ -3273,7 +3264,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -3281,21 +3272,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C26" s="96" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="97">
+      <c r="D26" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="95">
         <v>3</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="98" t="s">
-        <v>395</v>
+      <c r="G26" s="96" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3304,20 +3295,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="24">
         <v>8</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3332,14 +3323,14 @@
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="24">
         <v>8</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3354,14 +3345,14 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="24">
         <v>8</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3370,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>42</v>
@@ -3383,7 +3374,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1">
@@ -3392,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
@@ -3405,7 +3396,7 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3427,7 +3418,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3449,7 +3440,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1">
@@ -3458,10 +3449,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>12</v>
@@ -3491,7 +3482,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3505,13 +3496,13 @@
       <c r="C36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="74" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="30"/>
       <c r="G36" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3544,7 +3535,7 @@
       <c r="C38" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="74" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="27"/>
@@ -3579,10 +3570,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -3608,178 +3599,178 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C11" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3790,11 +3781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3807,14 +3798,14 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1">
-      <c r="A1" s="54" t="s">
-        <v>179</v>
+    <row r="1" spans="1:9" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
-        <v>194</v>
+      <c r="A3" s="52" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3839,8 +3830,8 @@
       <c r="H5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="94" t="s">
-        <v>357</v>
+      <c r="I5" s="92" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3848,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>177</v>
+        <v>348</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>176</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -3861,10 +3852,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3872,23 +3863,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>351</v>
-      </c>
       <c r="E7" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>352</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3896,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3909,24 +3900,97 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="53"/>
-      <c r="D9" s="52"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="40" customFormat="1">
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="43">
+        <v>5</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" s="40" customFormat="1">
+      <c r="B10" s="32">
+        <v>5</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="43">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" s="40" customFormat="1">
+      <c r="B11" s="32">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="43">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" s="40" customFormat="1">
+      <c r="B12" s="32">
+        <v>7</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="43">
+        <v>8</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,8 +4000,8 @@
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="52" customWidth="1"/>
     <col min="12" max="13" width="8.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.77734375" customWidth="1"/>
     <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
@@ -3946,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3957,201 +4021,201 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="107"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
-      <c r="J10" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="56" t="s">
+      <c r="J10" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="N10" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" s="57" t="s">
-        <v>169</v>
+      <c r="K10" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="44"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="61"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="64">
+        <v>160</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="62">
         <v>300000</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="62">
         <v>0</v>
       </c>
-      <c r="N12" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>170</v>
+      <c r="N12" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="64">
+        <v>161</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="62">
         <v>500000</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="62">
         <v>0</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>171</v>
+      <c r="N13" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="61"/>
+        <v>97</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="72" t="s">
-        <v>174</v>
+        <v>162</v>
+      </c>
+      <c r="J16" s="63"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="72" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="70" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="71" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4165,7 +4229,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4173,177 +4237,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4357,7 +4421,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4365,67 +4429,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4433,42 +4497,42 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="C84" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="47" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="103">
+      <c r="A85" s="101">
         <v>1</v>
       </c>
       <c r="B85" s="48">
         <v>3</v>
       </c>
-      <c r="C85" s="103">
+      <c r="C85" s="101">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="104"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
-      <c r="C86" s="104"/>
+      <c r="C86" s="102"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
@@ -4523,7 +4587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4533,939 +4597,939 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="79" customWidth="1"/>
-    <col min="6" max="6" width="8" style="79" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="15" style="79" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="79" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="79" customWidth="1"/>
-    <col min="15" max="15" width="8" style="79" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" style="79" customWidth="1"/>
-    <col min="17" max="17" width="53" style="79" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="79"/>
+    <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="8" style="77" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="77" customWidth="1"/>
+    <col min="12" max="12" width="15" style="77" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="77" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="77" customWidth="1"/>
+    <col min="15" max="15" width="8" style="77" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" style="77" customWidth="1"/>
+    <col min="17" max="17" width="53" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A1" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="F2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q1" s="88" t="s">
+    </row>
+    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
+      <c r="A3" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32.4">
+      <c r="A4" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="32.4">
+      <c r="A5" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" s="78" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="F2" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="78" t="s">
+      <c r="Q5" s="82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32.4">
+      <c r="A6" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32.4">
+      <c r="A7" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q7" s="82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P8" s="78"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="78"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
-      <c r="A3" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="77" t="s">
+      <c r="I10" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O10" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="79">
+        <v>310</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="79">
+        <v>320</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="79">
+        <v>330</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="79">
+        <v>340</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="39.6" customHeight="1">
+      <c r="A21" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="N21" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O21" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P21" s="77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="39.6" customHeight="1">
+      <c r="A22" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="L22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+    </row>
+    <row r="23" spans="1:17" ht="39.6" customHeight="1">
+      <c r="A23" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="L23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+    </row>
+    <row r="24" spans="1:17" ht="39.6" customHeight="1">
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="L24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+    </row>
+    <row r="25" spans="1:17" ht="32.4">
+      <c r="A25" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>342</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="I3" s="77" t="s">
+      <c r="E25" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J25" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="K25" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q25" s="77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="1:17" ht="64.8">
+      <c r="A28" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" s="86" t="s">
+      <c r="K28" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L28" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="N3" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="P3" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.4">
-      <c r="A4" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="N4" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="32.4">
-      <c r="A5" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="L5" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="N5" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O5" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P5" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="32.4">
-      <c r="A6" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="84" t="s">
+      <c r="M28" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="55.95" customHeight="1">
+      <c r="A29" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="N29" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M6" s="80" t="s">
+      <c r="O29" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="N6" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="32.4">
-      <c r="A7" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="L7" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="N7" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O7" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P7" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O8" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" s="80"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>288</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O9" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="L10" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O10" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="80"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="81">
-        <v>310</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="81">
-        <v>320</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="81">
-        <v>330</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="81">
-        <v>340</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="79" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G16" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="51"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="81" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="51"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="79" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A21" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="L21" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="N21" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O21" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A22" s="92" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="L22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-    </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A23" s="92" t="s">
-        <v>329</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="E23" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="L23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-    </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1">
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="L24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-    </row>
-    <row r="25" spans="1:17" ht="32.4">
-      <c r="A25" s="90" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="N25" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-    </row>
-    <row r="28" spans="1:17" ht="64.8">
-      <c r="A28" s="89" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="84" t="s">
+      <c r="P29" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="D28" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="K28" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="L28" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M28" s="84" t="s">
-        <v>307</v>
-      </c>
-      <c r="N28" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="O28" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P28" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q28" s="79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1">
-      <c r="A29" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="L29" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="M29" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="N29" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="O29" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="P29" s="84" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q29" s="79" t="s">
-        <v>312</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="407">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -586,10 +586,6 @@
   <si>
     <t>含次日交易</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
@@ -1624,10 +1620,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>起帳/銷帳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1665,6 +1657,10 @@
   </si>
   <si>
     <t>起帳交易序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2074,7 +2070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,18 +2351,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2393,6 +2377,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2767,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2785,10 +2796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
@@ -2800,8 +2811,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2813,10 +2824,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
@@ -2828,10 +2839,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -2839,10 +2850,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="16" t="s">
         <v>88</v>
       </c>
@@ -2852,12 +2863,12 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2865,10 +2876,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="7"/>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -2906,10 +2917,10 @@
         <v>83</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2980,7 +2991,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3002,7 +3013,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3101,14 +3112,14 @@
         <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3130,7 +3141,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3142,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>76</v>
@@ -3152,7 +3163,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3234,7 +3245,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3247,7 +3258,7 @@
     </row>
     <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
       <c r="A25" s="41">
-        <f t="shared" ref="A25:A37" si="1">A24+1</f>
+        <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3264,29 +3275,29 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4">
-      <c r="A26" s="41">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="107" customFormat="1" ht="32.4">
+      <c r="A26" s="102">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="105">
         <v>3</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="96" t="s">
-        <v>394</v>
+      <c r="F26" s="104"/>
+      <c r="G26" s="106" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3308,96 +3319,88 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="40" customFormat="1">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="24">
-        <v>8</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="25" t="s">
-        <v>148</v>
-      </c>
+      <c r="B28" s="108" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="E28" s="110">
+        <v>5</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="24">
-        <v>8</v>
+      <c r="B29" s="108" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="110">
+        <v>4</v>
       </c>
       <c r="F29" s="23"/>
-      <c r="G29" s="25" t="s">
-        <v>149</v>
-      </c>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="24">
-        <v>5</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="40" customFormat="1">
+      <c r="B30" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="E30" s="110">
+        <v>6</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="43">
-        <v>4</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="25" t="s">
-        <v>398</v>
-      </c>
+      <c r="B31" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="110">
+        <v>8</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="41">
@@ -3405,20 +3408,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E32" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>398</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3427,62 +3430,64 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E33" s="24">
         <v>8</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="40" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="41">
-        <v>300</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="E34" s="24">
+        <v>5</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="40" customFormat="1">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>27</v>
+      <c r="B35" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="24">
-        <v>6</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="28" t="s">
-        <v>150</v>
+      <c r="E35" s="43">
+        <v>4</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="25" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3490,19 +3495,21 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="30"/>
+      <c r="B36" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="24">
+        <v>6</v>
+      </c>
+      <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>150</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3510,48 +3517,121 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="B37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="24">
+        <v>8</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="27">
-        <v>6</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11">
-        <v>30</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="41">
+        <v>300</v>
+      </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
+      <c r="A39" s="41">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="24">
+        <v>6</v>
+      </c>
       <c r="G39" s="30"/>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="41">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="41">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="41">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="27"/>
+    </row>
     <row r="44" spans="1:7">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3599,178 +3679,178 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C11" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3782,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3800,12 +3880,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3831,7 +3911,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3839,10 +3919,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -3852,10 +3932,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3863,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>349</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>350</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>82</v>
@@ -3876,10 +3956,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>351</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3887,10 +3967,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3900,87 +3980,11 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="40" customFormat="1">
-      <c r="B9" s="32">
-        <v>4</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" s="43">
-        <v>5</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" s="40" customFormat="1">
-      <c r="B10" s="32">
-        <v>5</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="43">
-        <v>4</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" s="40" customFormat="1">
-      <c r="B11" s="32">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="43">
-        <v>6</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" s="40" customFormat="1">
-      <c r="B12" s="32">
-        <v>7</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="43">
-        <v>8</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="25"/>
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4048,40 +4052,40 @@
       <c r="A9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="103" t="s">
+      <c r="J9" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="P9" s="105"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4096,13 +4100,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4111,24 +4115,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4137,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4172,7 +4176,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4180,15 +4184,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4196,15 +4200,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4212,10 +4216,10 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4434,7 +4438,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -4517,22 +4521,22 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="101">
+      <c r="A85" s="97">
         <v>1</v>
       </c>
       <c r="B85" s="48">
         <v>3</v>
       </c>
-      <c r="C85" s="101">
+      <c r="C85" s="97">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="102"/>
+      <c r="A86" s="98"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
-      <c r="C86" s="102"/>
+      <c r="C86" s="98"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
@@ -4619,581 +4623,581 @@
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>247</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="N2" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I3" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J3" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K3" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="84" t="s">
-        <v>234</v>
-      </c>
       <c r="M3" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I4" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J4" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K4" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>231</v>
-      </c>
       <c r="D5" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J5" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K5" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J6" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K6" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M6" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="O6" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q6" s="82" t="s">
         <v>270</v>
-      </c>
-      <c r="O6" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="P6" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I7" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K7" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M7" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="N7" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="N7" s="78" t="s">
-        <v>270</v>
-      </c>
       <c r="O7" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P7" s="78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="77" t="s">
-        <v>315</v>
-      </c>
       <c r="F8" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="80" t="s">
-        <v>318</v>
-      </c>
       <c r="H8" s="80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J8" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K8" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="78" t="s">
         <v>233</v>
-      </c>
-      <c r="L8" s="78" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P8" s="78"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="G9" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="G9" s="80" t="s">
-        <v>318</v>
-      </c>
       <c r="H9" s="80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I9" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J9" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K9" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="78" t="s">
         <v>233</v>
-      </c>
-      <c r="L9" s="78" t="s">
-        <v>234</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I10" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J10" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K10" s="77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F12" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G12" s="77" t="s">
+      <c r="H12" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="77" t="s">
+      <c r="H13" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G14" s="77" t="s">
+      <c r="H14" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>335</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>336</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="77" t="s">
+      <c r="H16" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5201,22 +5205,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F17" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="77" t="s">
+      <c r="H17" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5224,22 +5228,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="77" t="s">
+      <c r="H18" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5247,22 +5251,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F19" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="77" t="s">
+      <c r="H19" s="77" t="s">
         <v>330</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>331</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5270,76 +5274,76 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>360</v>
-      </c>
       <c r="D20" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="77" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>284</v>
-      </c>
       <c r="I21" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J21" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J21" s="75" t="s">
-        <v>301</v>
-      </c>
       <c r="K21" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L21" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5349,22 +5353,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5381,49 +5385,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>294</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5436,96 +5440,96 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="82" t="s">
-        <v>310</v>
-      </c>
       <c r="D28" s="82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H28" s="77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K28" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L28" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M28" s="82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N28" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O28" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P28" s="82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>277</v>
-      </c>
       <c r="D29" s="82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H29" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I29" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J29" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L29" s="78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N29" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O29" s="78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1535,10 +1535,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">銷帳科目記號    </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo ASC,RvNo DESC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1594,73 +1590,77 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>共用代碼檔
+201:利變年金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳/銷帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenKinBr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTlrNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxtNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳單位別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">銷帳科目記號    </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1:會計銷帳科目
 2:業務銷帳科目
 3:未收費用
 4:短繳期金
 5:另收欠款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-201:利變年金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A:傳統帳冊
-201:利變年金帳冊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvNo Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳/銷帳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxCd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTxCd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenKinBr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTlrNo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTxtNo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳交易代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳單位別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳經辦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳交易序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2351,6 +2351,33 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2377,33 +2404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2796,10 +2796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
@@ -2811,8 +2811,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2824,10 +2824,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
@@ -2839,10 +2839,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -2850,10 +2850,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
         <v>88</v>
       </c>
@@ -2863,10 +2863,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
         <v>151</v>
       </c>
@@ -2876,10 +2876,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="7"/>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3153,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>76</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3275,29 +3275,29 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="107" customFormat="1" ht="32.4">
-      <c r="A26" s="102">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
+      <c r="A26" s="93">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="96">
         <v>3</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="106" t="s">
-        <v>393</v>
+      <c r="F26" s="95"/>
+      <c r="G26" s="97" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3327,16 +3327,16 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B28" s="108" t="s">
-        <v>398</v>
-      </c>
-      <c r="C28" s="108" t="s">
-        <v>402</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>406</v>
-      </c>
-      <c r="E28" s="110">
+      <c r="B28" s="99" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="101">
         <v>5</v>
       </c>
       <c r="F28" s="41"/>
@@ -3347,16 +3347,16 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B29" s="108" t="s">
-        <v>399</v>
-      </c>
-      <c r="C29" s="108" t="s">
-        <v>403</v>
-      </c>
-      <c r="D29" s="109" t="s">
+      <c r="B29" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="101">
         <v>4</v>
       </c>
       <c r="F29" s="23"/>
@@ -3367,16 +3367,16 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B30" s="108" t="s">
-        <v>400</v>
-      </c>
-      <c r="C30" s="108" t="s">
+      <c r="B30" s="99" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" s="100" t="s">
         <v>404</v>
       </c>
-      <c r="D30" s="109" t="s">
-        <v>406</v>
-      </c>
-      <c r="E30" s="110">
+      <c r="E30" s="101">
         <v>6</v>
       </c>
       <c r="F30" s="30"/>
@@ -3387,16 +3387,16 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B31" s="108" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>405</v>
-      </c>
-      <c r="D31" s="109" t="s">
+      <c r="B31" s="99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="101">
         <v>8</v>
       </c>
       <c r="F31" s="30"/>
@@ -3452,7 +3452,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>42</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3773,7 +3773,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>368</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
@@ -3806,7 +3806,7 @@
         <v>370</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>369</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3828,26 +3828,26 @@
         <v>373</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3864,7 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4052,17 +4052,17 @@
       <c r="A9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="99" t="s">
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
@@ -4521,22 +4521,22 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="97">
+      <c r="A85" s="106">
         <v>1</v>
       </c>
       <c r="B85" s="48">
         <v>3</v>
       </c>
-      <c r="C85" s="97">
+      <c r="C85" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="98"/>
+      <c r="A86" s="107"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
-      <c r="C86" s="98"/>
+      <c r="C86" s="107"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
@@ -4755,7 +4755,7 @@
         <v>269</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q3" s="82" t="s">
         <v>265</v>
@@ -4802,7 +4802,7 @@
         <v>269</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>266</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -720,19 +720,10 @@
     <t>CustNo = ,AND AcctFlag = ,AND FacmNo &gt;=</t>
   </si>
   <si>
-    <t>FacmNo Desc, RvNo Desc</t>
-  </si>
-  <si>
     <t>acrvRvNoEq</t>
   </si>
   <si>
-    <t>acrvFacmNoRange</t>
-  </si>
-  <si>
     <t>ClsFlag = ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
-  </si>
-  <si>
-    <t>OpenAcDate</t>
   </si>
   <si>
     <t>acrvOpenAcDateLq</t>
@@ -1662,6 +1653,18 @@
 4:短繳期金
 5:另收欠款</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvFacmNoRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo Desc, RvNo Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAcDate,RvNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2780,7 +2783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2917,10 +2920,10 @@
         <v>83</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3013,7 +3016,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3119,7 +3122,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3141,7 +3144,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3153,7 +3156,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>76</v>
@@ -3163,7 +3166,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3245,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3275,7 +3278,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
@@ -3284,10 +3287,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D26" s="95" t="s">
         <v>82</v>
@@ -3297,7 +3300,7 @@
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3319,7 +3322,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="40" customFormat="1">
@@ -3328,13 +3331,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3348,10 +3351,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D29" s="100" t="s">
         <v>58</v>
@@ -3368,13 +3371,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3388,10 +3391,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D31" s="100" t="s">
         <v>66</v>
@@ -3452,7 +3455,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>42</v>
@@ -3465,7 +3468,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3474,7 +3477,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3487,7 +3490,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3509,7 +3512,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3531,7 +3534,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3653,9 +3656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3685,7 +3688,7 @@
         <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3696,40 +3699,40 @@
         <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3740,7 +3743,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3751,103 +3754,103 @@
         <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3911,7 +3914,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3919,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D6" s="72" t="s">
         <v>175</v>
@@ -3932,10 +3935,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3943,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>82</v>
@@ -3956,10 +3959,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3967,10 +3970,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3980,10 +3983,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4623,581 +4626,581 @@
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="G1" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G2" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="J2" s="76" t="s">
+      <c r="M2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M3" s="84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>234</v>
-      </c>
       <c r="M5" s="78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="88" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="88" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K7" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>234</v>
-      </c>
       <c r="M7" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" s="82" t="s">
         <v>268</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="G8" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>317</v>
-      </c>
       <c r="H8" s="80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P8" s="78"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5205,22 +5208,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5228,22 +5231,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5251,22 +5254,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5274,76 +5277,76 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>283</v>
-      </c>
       <c r="I21" s="75" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K21" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="L21" s="78" t="s">
-        <v>234</v>
-      </c>
       <c r="N21" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5353,22 +5356,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5385,49 +5388,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="I25" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>296</v>
-      </c>
       <c r="N25" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O25" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P25" s="77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="77" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5440,96 +5443,96 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>308</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="P28" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q28" s="77" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="D29" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="H29" s="77" t="s">
-        <v>279</v>
-      </c>
       <c r="I29" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="J29" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="J29" s="75" t="s">
-        <v>302</v>
-      </c>
       <c r="K29" s="77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L29" s="78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N29" s="77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O29" s="78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="408">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1106,10 +1106,6 @@
   </si>
   <si>
     <t>支票帳號(9)-支票號碼(7)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第一筆撥款序號(3) </t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1665,6 +1661,14 @@
   <si>
     <t>OpenAcDate,RvNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstDueDate首次應繳日</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一筆撥款序號(3) </t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2920,10 +2924,10 @@
         <v>83</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2994,7 +2998,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3122,7 +3126,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3144,7 +3148,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3156,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>76</v>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3278,7 +3282,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
@@ -3287,10 +3291,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="95" t="s">
         <v>360</v>
-      </c>
-      <c r="C26" s="95" t="s">
-        <v>361</v>
       </c>
       <c r="D26" s="95" t="s">
         <v>82</v>
@@ -3300,7 +3304,7 @@
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3322,7 +3326,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="40" customFormat="1">
@@ -3331,13 +3335,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3351,10 +3355,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D29" s="100" t="s">
         <v>58</v>
@@ -3371,13 +3375,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3391,10 +3395,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D31" s="100" t="s">
         <v>66</v>
@@ -3455,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>42</v>
@@ -3468,7 +3472,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3477,7 +3481,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3490,7 +3494,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3512,7 +3516,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3534,7 +3538,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3656,7 +3660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -3699,7 +3703,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3715,13 +3719,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3743,7 +3747,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3754,7 +3758,7 @@
         <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
@@ -3776,7 +3780,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3787,70 +3791,70 @@
         <v>200</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3914,7 +3918,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3922,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="72" t="s">
         <v>175</v>
@@ -3935,10 +3939,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3946,10 +3950,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>345</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>346</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>82</v>
@@ -3959,10 +3963,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>347</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3970,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3983,10 +3987,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4597,9 +4601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -4638,7 +4642,7 @@
         <v>257</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F1" s="76" t="s">
         <v>239</v>
@@ -4722,25 +4726,25 @@
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="85" t="s">
         <v>258</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K3" s="75" t="s">
         <v>229</v>
@@ -4758,7 +4762,7 @@
         <v>266</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q3" s="82" t="s">
         <v>262</v>
@@ -4775,19 +4779,19 @@
         <v>258</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K4" s="77" t="s">
         <v>213</v>
@@ -4805,7 +4809,7 @@
         <v>266</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>263</v>
@@ -4822,20 +4826,20 @@
         <v>258</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I5" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K5" s="77" t="s">
         <v>228</v>
@@ -4870,20 +4874,20 @@
         <v>269</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J6" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K6" s="77" t="s">
         <v>213</v>
@@ -4901,7 +4905,7 @@
         <v>266</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="82" t="s">
         <v>267</v>
@@ -4918,20 +4922,20 @@
         <v>269</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K7" s="77" t="s">
         <v>228</v>
@@ -4960,25 +4964,25 @@
         <v>217</v>
       </c>
       <c r="C8" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="77" t="s">
-        <v>311</v>
-      </c>
       <c r="F8" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="80" t="s">
-        <v>314</v>
-      </c>
       <c r="H8" s="80" t="s">
-        <v>282</v>
+        <v>407</v>
       </c>
       <c r="I8" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K8" s="81" t="s">
         <v>229</v>
@@ -4993,7 +4997,9 @@
       <c r="O8" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="P8" s="78"/>
+      <c r="P8" s="78" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
@@ -5003,22 +5009,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="G9" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="80" t="s">
-        <v>314</v>
-      </c>
       <c r="H9" s="80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J9" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J9" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K9" s="81" t="s">
         <v>229</v>
@@ -5040,7 +5046,7 @@
         <v>219</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>271</v>
@@ -5049,13 +5055,13 @@
         <v>276</v>
       </c>
       <c r="I10" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J10" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="J10" s="75" t="s">
-        <v>297</v>
-      </c>
       <c r="K10" s="77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L10" s="78" t="s">
         <v>230</v>
@@ -5080,16 +5086,16 @@
         <v>202</v>
       </c>
       <c r="D11" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
@@ -5105,16 +5111,16 @@
         <v>203</v>
       </c>
       <c r="D12" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="77" t="s">
+      <c r="H12" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
@@ -5130,16 +5136,16 @@
         <v>204</v>
       </c>
       <c r="D13" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F13" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="77" t="s">
+      <c r="H13" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
@@ -5155,52 +5161,52 @@
         <v>205</v>
       </c>
       <c r="D14" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G14" s="77" t="s">
+      <c r="H14" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>331</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>332</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F16" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="77" t="s">
+      <c r="H16" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5208,22 +5214,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="77" t="s">
+      <c r="H17" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5231,22 +5237,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>208</v>
       </c>
       <c r="D18" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="77" t="s">
+      <c r="H18" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5254,22 +5260,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>209</v>
       </c>
       <c r="D19" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="77" t="s">
+      <c r="H19" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5277,18 +5283,18 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>356</v>
-      </c>
       <c r="D20" s="77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
@@ -5299,22 +5305,22 @@
         <v>279</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>280</v>
       </c>
       <c r="I21" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J21" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K21" s="77" t="s">
         <v>228</v>
@@ -5329,24 +5335,24 @@
         <v>266</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5356,22 +5362,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5388,28 +5394,28 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>278</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H25" s="77" t="s">
         <v>281</v>
       </c>
       <c r="I25" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J25" s="75" t="s">
         <v>296</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="K25" s="77" t="s">
         <v>228</v>
@@ -5418,7 +5424,7 @@
         <v>231</v>
       </c>
       <c r="M25" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N25" s="78" t="s">
         <v>266</v>
@@ -5427,10 +5433,10 @@
         <v>266</v>
       </c>
       <c r="P25" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5443,37 +5449,37 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="C28" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="D28" s="82" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H28" s="77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K28" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L28" s="78" t="s">
         <v>231</v>
       </c>
       <c r="M28" s="82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N28" s="77" t="s">
         <v>271</v>
@@ -5482,10 +5488,10 @@
         <v>266</v>
       </c>
       <c r="P28" s="82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
@@ -5496,31 +5502,31 @@
         <v>273</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H29" s="77" t="s">
         <v>276</v>
       </c>
       <c r="I29" s="75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J29" s="75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L29" s="78" t="s">
         <v>231</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N29" s="77" t="s">
         <v>270</v>
@@ -5529,10 +5535,10 @@
         <v>266</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="408">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4601,9 +4601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -5345,9 +5345,6 @@
       <c r="C22" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="E22" s="77" t="s">
-        <v>339</v>
-      </c>
       <c r="F22" s="77" t="s">
         <v>318</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00764EFF-BF2B-4FAC-845B-D4AE40A7523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="411">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1670,11 +1671,23 @@
     <t xml:space="preserve">第一筆撥款序號(3) </t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">AcctCode % ,AND CustNo = ,AND FacmNo = ,AND RvNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC,RvNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCodeLikeFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2415,9 +2428,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2574,6 +2587,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2609,6 +2639,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2784,10 +2831,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3657,12 +3704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3860,6 +3907,17 @@
         <v>180</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,7 +3926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4001,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,10 +4656,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -5539,7 +5597,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00764EFF-BF2B-4FAC-845B-D4AE40A7523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E3A87-36FE-496A-98E6-4B4D3E15961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1452" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="418">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1682,6 +1682,34 @@
   <si>
     <t>acctCodeLikeFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvClsFlag2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode %,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvFacmNo2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCode2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3705,11 +3733,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3916,6 +3944,39 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32.4">
+      <c r="A19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32.4">
+      <c r="A20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E3A87-36FE-496A-98E6-4B4D3E15961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1452" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="417">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,10 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>起帳總額</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,10 +163,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>LastAcDate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>起帳日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -379,10 +370,6 @@
   </si>
   <si>
     <t>ClsFlag,BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,CustNo,FacmNo,RvNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借新還舊時放000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1554,6 +1541,158 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>0:未銷
+1:已銷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:一般科目
+1:資負明細科目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+201:利變年金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳/銷帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxCd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenKinBr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTlrNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTxtNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳單位別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳交易序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">銷帳科目記號    </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:會計銷帳科目
+2:業務銷帳科目
+3:未收費用
+4:短繳期金
+5:另收欠款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvFacmNoRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo Desc, RvNo Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAcDate,RvNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstDueDate首次應繳日</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一筆撥款序號(3) </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcctCode % ,AND CustNo = ,AND FacmNo = ,AND RvNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC,RvNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCodeLikeFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvClsFlag2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode %,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvFacmNo2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCode2SubBook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastAcDate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
 2:擔保放款、催收款項 : 撥款序號(3)
 3:會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
@@ -1563,159 +1702,15 @@
 7:未收、暫收、暫付、催收火險保費：原保險單號碼
 8:暫付、催收法務費：記錄號碼(8)
 9:短繳期金：撥款序號(3)
-10:'FacmNo'+額度編號(暫收款－借新還舊)
+10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
 11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未銷
-1:已銷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:一般科目
-1:資負明細科目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-201:利變年金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A:傳統帳冊
-201:利變年金帳冊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvNo Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳/銷帳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxCd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTxCd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenKinBr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTlrNo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenTxtNo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳交易代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳單位別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳經辦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳交易序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">銷帳科目記號    </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:會計銷帳科目
-2:業務銷帳科目
-3:未收費用
-4:短繳期金
-5:另收欠款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acrvFacmNoRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo Desc, RvNo Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenAcDate,RvNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstDueDate首次應繳日</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第一筆撥款序號(3) </t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcctCode % ,AND CustNo = ,AND FacmNo = ,AND RvNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode ASC,CustNo ASC,FacmNo ASC,RvNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctCodeLikeFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acrvClsFlag2SubBook</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode %,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode ASC,CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acrvFacmNo2SubBook</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctCode2SubBook</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2456,9 +2451,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2615,23 +2610,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2667,23 +2645,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2859,11 +2820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2883,10 +2844,10 @@
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -2911,7 +2872,7 @@
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2937,7 +2898,7 @@
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2950,7 +2911,7 @@
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2973,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="40" customFormat="1">
@@ -2996,20 +2957,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3018,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -3038,10 +2999,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>21</v>
+        <v>415</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3050,9 +3011,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="23"/>
-      <c r="G11" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="178.2">
       <c r="A12" s="41">
@@ -3060,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -3073,7 +3032,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3085,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -3095,7 +3054,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3104,20 +3063,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="32">
         <v>5</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3126,20 +3085,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="20">
         <v>2</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1">
@@ -3188,20 +3147,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3210,20 +3169,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3232,20 +3191,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3254,10 +3213,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -3276,10 +3235,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3291,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3300,10 +3259,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -3315,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3324,13 +3283,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="24">
         <v>80</v>
@@ -3344,20 +3303,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="20">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
@@ -3366,20 +3325,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="96">
         <v>3</v>
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3388,20 +3347,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="24">
         <v>8</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="40" customFormat="1">
@@ -3410,13 +3369,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="D28" s="100" t="s">
         <v>396</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>400</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3430,13 +3389,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="99" t="s">
         <v>393</v>
       </c>
-      <c r="C29" s="99" t="s">
-        <v>397</v>
-      </c>
       <c r="D29" s="100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="101">
         <v>4</v>
@@ -3450,13 +3409,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="99" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="99" t="s">
-        <v>398</v>
-      </c>
       <c r="D30" s="100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3470,13 +3429,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="99" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="99" t="s">
-        <v>399</v>
-      </c>
       <c r="D31" s="100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="101">
         <v>8</v>
@@ -3490,20 +3449,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="24">
         <v>8</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3512,20 +3471,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="24">
         <v>8</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3534,10 +3493,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -3547,7 +3506,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3556,7 +3515,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3569,7 +3528,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3578,10 +3537,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
@@ -3591,7 +3550,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3600,10 +3559,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>19</v>
@@ -3613,7 +3572,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3622,10 +3581,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
@@ -3642,10 +3601,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -3661,13 +3620,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="27"/>
     </row>
@@ -3677,10 +3636,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
@@ -3695,13 +3654,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="27"/>
     </row>
@@ -3732,10 +3691,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
@@ -3761,222 +3720,222 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32.4">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32.4">
       <c r="A20" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3987,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4006,12 +3965,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4019,25 +3978,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="I5" s="92" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -4045,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -4058,10 +4017,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -4069,23 +4028,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -4093,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -4106,10 +4065,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4120,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4140,7 +4099,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4151,67 +4110,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="110"/>
       <c r="O9" s="108" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>158</v>
-      </c>
       <c r="M10" s="54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4226,13 +4185,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4241,24 +4200,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4267,18 +4226,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
@@ -4290,7 +4249,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
@@ -4302,7 +4261,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4310,15 +4269,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4326,15 +4285,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4342,10 +4301,10 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4359,7 +4318,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4367,177 +4326,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4551,7 +4510,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4559,67 +4518,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4627,23 +4586,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4717,7 +4676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4749,583 +4708,583 @@
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="G1" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G2" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="76" t="s">
+      <c r="M2" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M3" s="84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>231</v>
-      </c>
       <c r="M5" s="78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K7" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>231</v>
-      </c>
       <c r="M7" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="82" t="s">
         <v>265</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="G8" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>313</v>
-      </c>
       <c r="H8" s="80" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5333,22 +5292,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5356,22 +5315,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5379,22 +5338,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5402,73 +5361,73 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>280</v>
-      </c>
       <c r="I21" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K21" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="L21" s="78" t="s">
-        <v>231</v>
-      </c>
       <c r="N21" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5478,22 +5437,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5510,49 +5469,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="I25" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>292</v>
-      </c>
       <c r="N25" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O25" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P25" s="77" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="77" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5565,100 +5524,100 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>304</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="P28" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q28" s="77" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C29" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="77" t="s">
-        <v>276</v>
-      </c>
       <c r="I29" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="J29" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="J29" s="75" t="s">
-        <v>298</v>
-      </c>
       <c r="K29" s="77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L29" s="78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N29" s="77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O29" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="5" r:id="rId3"/>
     <sheet name="借新還舊" sheetId="3" r:id="rId4"/>
-    <sheet name="資料轉換" sheetId="4" r:id="rId5"/>
+    <sheet name="資料來源" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料來源!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -327,10 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve">銷帳編號 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcReceivable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -810,10 +806,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>TMI</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>F07</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1000,21 +992,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>轉換規則</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>OvduDate轉催收日</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>OverdueDate轉催收日</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotiTempFg入通知檔=Y:已入
-&amp;&amp; StatusCode 處理代碼=0:正常
-&amp;&amp; AcDate會計日期(繳款日)=0</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1221,10 +1203,6 @@
   </si>
   <si>
     <t>帳管費</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS400.LN$ACFP</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1705,6 +1683,28 @@
 10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
 11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+StatusCode 處理代碼=0:正常
+&amp;&amp; AcDate會計日期(繳款日)=0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS400.LN$ACFP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcReceivable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理規則</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2823,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2844,10 +2844,10 @@
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2957,20 +2957,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -2999,10 +2999,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3153,14 +3153,14 @@
         <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3169,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>63</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3194,7 +3194,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>74</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>35</v>
@@ -3286,7 +3286,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>46</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
@@ -3325,20 +3325,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="96">
         <v>3</v>
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="40" customFormat="1">
@@ -3369,13 +3369,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3389,10 +3389,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D29" s="100" t="s">
         <v>56</v>
@@ -3409,13 +3409,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3429,10 +3429,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D31" s="100" t="s">
         <v>64</v>
@@ -3449,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>24</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3493,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>40</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3515,7 +3515,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3581,10 +3581,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
@@ -3720,222 +3720,222 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C11" s="42" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32.4">
       <c r="A19" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32.4">
       <c r="A20" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3965,12 +3965,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3996,7 +3996,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -4004,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -4017,10 +4017,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -4028,23 +4028,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -4052,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -4065,10 +4065,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4099,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4110,67 +4110,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="110"/>
       <c r="O9" s="108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4185,13 +4185,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4200,24 +4200,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4226,18 +4226,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4269,15 +4269,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4285,15 +4285,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4301,10 +4301,10 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4318,7 +4318,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4326,177 +4326,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4518,67 +4518,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4586,23 +4586,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="C84" s="47" t="s">
         <v>143</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4679,9 +4679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -4708,583 +4708,583 @@
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="76" t="s">
+      <c r="K1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="Q1" s="86" t="s">
-        <v>256</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="76" t="s">
+      <c r="K2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>211</v>
+        <v>412</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M3" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P5" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q5" s="82" t="s">
         <v>257</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="88" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P7" s="78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>307</v>
+        <v>414</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5292,22 +5292,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5315,22 +5315,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5338,22 +5338,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5361,73 +5361,73 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K21" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L21" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5437,22 +5437,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5469,49 +5469,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G25" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>283</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5524,96 +5524,96 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D28" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="P28" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="P28" s="82" t="s">
+      <c r="Q28" s="77" t="s">
         <v>300</v>
-      </c>
-      <c r="Q28" s="77" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="75" t="s">
+      <c r="I29" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="K29" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="J29" s="75" t="s">
+      <c r="L29" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="K29" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="L29" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="M29" s="82" t="s">
+      <c r="N29" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="P29" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>299</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="P29" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q29" s="77" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="5" r:id="rId3"/>
     <sheet name="借新還舊" sheetId="3" r:id="rId4"/>
-    <sheet name="資料來源" sheetId="4" r:id="rId5"/>
+    <sheet name="業務檔對應" sheetId="4" r:id="rId5"/>
+    <sheet name="資料轉換" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料來源!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">業務檔對應!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="463">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,18 +168,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>含次日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含次日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">未銷餘額 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">會計日餘額 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -332,10 +321,6 @@
   <si>
     <t>會計銷帳檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvBal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AcctFlag</t>
@@ -666,10 +651,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JsonFields</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>結案區分</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -907,10 +888,6 @@
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -944,10 +921,6 @@
   <si>
     <t>傳票摘要</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlipNote</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode</t>
@@ -983,10 +956,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>來源Table</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuRenew
 火險單續保檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1104,11 +1073,6 @@
   </si>
   <si>
     <t>火險保費</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoanCheque
-支票檔</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1206,10 +1170,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>AS400.LN$CFRP</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>LMSACN</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1219,10 +1179,6 @@
   </si>
   <si>
     <t>TCK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS400.LADACTP</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1258,18 +1214,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>LA$ACTP</t>
-  </si>
-  <si>
     <t>取該戶號尚有餘額的第一筆額度</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>抓該額度下尚有餘額的第一筆撥款序號</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS400.LN$LORP</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1402,10 +1351,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>AS400無資料</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>YOP</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1454,10 +1399,6 @@
   <si>
     <t>ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險：原保險單保險迄日、暫付法務費：法務費單據日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>useL2064Eq</t>
@@ -1669,6 +1610,270 @@
   <si>
     <t>額度編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+StatusCode 處理代碼=0:正常
+&amp;&amp; AcDate會計日期(繳款日)=0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理規則</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS400.LN$ACFP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS400.LN$CFRP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：LA$ACTP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：LA$ACTP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：LA$ACTP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：LA$ACTP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS400無資料</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS400.LADACTP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS400.LN$LORP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanCheque
+支票檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應Table</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanBorTx
+放款交易內容檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zxx</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanBorTx
+放款交易內容檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanBorTx
+放款交易內容檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo撥款序號(3)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo撥款序號(3)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate 會計日</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo額度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務科目代號
+AcctCode</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號
+CustNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號
+FacmNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號
+RvNo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">業務科目記號
+AcctFlag    </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳總額
+RvAmt</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">銷帳科目記號
+ReceivableFlag    </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">起帳日期
+OpenAcDate
+</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvBal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同RvBal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未銷餘額 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetail
+會計帳務明細檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetail
+會計帳務明細檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetail
+會計帳務明細檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate銷號日期 =0：未銷, &gt;0：已銷
+OverdueDate轉催收日=0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate銷號日期 =0：未銷, &gt;0：已銷
+OverdueDate轉催收日&gt;0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetail
+會計帳務明細檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DrawdownAmt撥款金額
+</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Status狀態=1:催收, 2.部分轉呆
+</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status戶況=0:正常戶
+未銷餘額 = LoanBal放款餘額</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">處理規則
+(銷帳記號ClsFlag,未銷餘額RvBal) </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">短繳本金UnpaidPrincipal </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>短繳利息UnpaidPrincipal</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>短繳清償違約金UnpaidCloseBreach</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+StatusCode 處理代碼=0:正常
+AcDate會計日期=0：未銷, &gt;0：已銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode 處理代碼=1:借支
+&amp;&amp; AcDate會計日期=0：未銷, &gt;0：已銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode 處理代碼=2:催收
+&amp;&amp; AcDate會計日期=0：未銷, &gt;0：已銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>續保保單保險起日</t>
   </si>
   <si>
     <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
@@ -1685,26 +1890,34 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TMI</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-StatusCode 處理代碼=0:正常
-&amp;&amp; AcDate會計日期(繳款日)=0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS400.LN$ACFP</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>TMI,F09 火險保費：續保保單保險起日
+F07 暫付法務費：單據日期
+F10 帳管費：首次應繳日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單年月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX.202006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcReceivable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>處理規則</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>JsonFields</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2823,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2844,10 +3057,10 @@
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -2872,7 +3085,7 @@
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2898,7 +3111,7 @@
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2911,7 +3124,7 @@
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2934,22 +3147,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="40" customFormat="1">
@@ -2957,20 +3170,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2979,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -2999,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3019,10 +3232,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -3032,7 +3245,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3044,7 +3257,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -3054,7 +3267,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3063,20 +3276,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="32">
         <v>5</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3085,20 +3298,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="20">
         <v>2</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1">
@@ -3147,20 +3360,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3169,20 +3382,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3191,20 +3404,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3235,10 +3448,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3249,9 +3462,7 @@
       <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="41">
@@ -3262,7 +3473,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -3274,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>34</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3283,13 +3494,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="24">
         <v>80</v>
@@ -3303,20 +3514,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" s="20">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
@@ -3325,42 +3536,42 @@
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" s="96">
         <v>3</v>
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.6">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="24">
         <v>8</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="40" customFormat="1">
@@ -3369,13 +3580,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3389,13 +3600,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="101">
         <v>4</v>
@@ -3409,13 +3620,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3429,13 +3640,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="101">
         <v>8</v>
@@ -3449,20 +3660,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" s="24">
         <v>8</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3477,14 +3688,14 @@
         <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="24">
         <v>8</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3493,10 +3704,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -3506,7 +3717,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1">
@@ -3515,7 +3726,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3528,7 +3739,7 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3537,10 +3748,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
@@ -3550,7 +3761,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3559,10 +3770,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>19</v>
@@ -3572,7 +3783,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3581,10 +3792,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
@@ -3601,7 +3812,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>26</v>
@@ -3620,13 +3831,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E40" s="27"/>
     </row>
@@ -3636,7 +3847,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>28</v>
@@ -3654,13 +3865,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E42" s="27"/>
     </row>
@@ -3720,222 +3931,222 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32.4">
       <c r="A19" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32.4">
       <c r="A20" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3947,10 +4158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3965,12 +4176,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3978,25 +4189,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="I5" s="92" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -4004,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -4017,10 +4228,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -4028,23 +4239,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -4052,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -4065,11 +4276,33 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>342</v>
-      </c>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="32">
+        <v>6</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="I9" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4099,7 +4332,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4110,67 +4343,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="110"/>
       <c r="O9" s="108" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K10" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="54" t="s">
-        <v>154</v>
-      </c>
       <c r="M10" s="54" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4185,13 +4418,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4200,24 +4433,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4226,18 +4459,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
@@ -4249,7 +4482,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
@@ -4261,7 +4494,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4269,15 +4502,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4285,15 +4518,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4301,10 +4534,10 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4318,7 +4551,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4326,177 +4559,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4510,7 +4743,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4518,67 +4751,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4586,23 +4819,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4677,11 +4910,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -4689,7 +4922,797 @@
     <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="77" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="8" style="77" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="77" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="77" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="77" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="77" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="77" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="77" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="77" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.44140625" style="77" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="53" style="77" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6">
+      <c r="A2" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="32.4">
+      <c r="A3" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="P3" s="82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="32.4">
+      <c r="A4" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="32.4">
+      <c r="A5" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32.4">
+      <c r="A6" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O6" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:16" ht="32.4">
+      <c r="A9" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O9" s="78"/>
+      <c r="P9" s="77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="79">
+        <v>310</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="I10" s="75"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="79">
+        <v>320</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="79">
+        <v>330</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="79">
+        <v>340</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14" spans="1:16" ht="32.4">
+      <c r="A14" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="P14" s="77" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:16" ht="32.4">
+      <c r="A19" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="77" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A20" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N20" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" s="77" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A21" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="K21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+    </row>
+    <row r="22" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A22" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="75"/>
+      <c r="K22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+    </row>
+    <row r="23" spans="1:16" ht="39.6" customHeight="1">
+      <c r="I23" s="75"/>
+      <c r="K23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+    </row>
+    <row r="24" spans="1:16" ht="32.4">
+      <c r="A24" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J24" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="I25" s="75"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="I26" s="75"/>
+    </row>
+    <row r="27" spans="1:16" ht="64.8">
+      <c r="A27" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="M27" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="N27" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.95" customHeight="1">
+      <c r="A28" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="N28" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P1"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="77" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" style="77" customWidth="1"/>
     <col min="6" max="6" width="8" style="77" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="77" bestFit="1" customWidth="1"/>
@@ -4708,583 +5731,580 @@
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="G1" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>235</v>
-      </c>
       <c r="H1" s="76" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J1" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J2" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G3" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>289</v>
-      </c>
       <c r="K3" s="75" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M3" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="N3" s="84" t="s">
-        <v>259</v>
-      </c>
       <c r="O3" s="84" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="88" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G4" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>289</v>
-      </c>
       <c r="K4" s="77" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M4" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="78" t="s">
-        <v>259</v>
-      </c>
       <c r="O4" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H5" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>289</v>
-      </c>
       <c r="K5" s="77" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="N5" s="78" t="s">
-        <v>259</v>
-      </c>
       <c r="O5" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="88" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J6" s="75" t="s">
-        <v>289</v>
-      </c>
       <c r="K6" s="77" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="88" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>289</v>
-      </c>
       <c r="K7" s="77" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P7" s="78" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -5292,22 +6312,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -5315,22 +6335,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
@@ -5338,22 +6358,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
@@ -5361,73 +6381,73 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G21" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="I21" s="75" t="s">
-        <v>288</v>
-      </c>
       <c r="J21" s="75" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K21" s="77" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L21" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
@@ -5437,22 +6457,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5469,49 +6489,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="77" t="s">
+      <c r="H25" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="J25" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>274</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5524,102 +6544,100 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H28" s="77" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K28" s="77" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L28" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M28" s="82" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N28" s="77" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O28" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P28" s="82" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="77" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="88" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H29" s="77" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I29" s="75" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J29" s="75" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L29" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N29" s="77" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="O29" s="78" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="77" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="471">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -316,10 +316,6 @@
   </si>
   <si>
     <t xml:space="preserve">銷帳編號 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計銷帳檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -568,9 +564,6 @@
     <t>UseL5074</t>
   </si>
   <si>
-    <t>ClsFlag = , AND AcctCode ^i</t>
-  </si>
-  <si>
     <t>RvNO</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -662,9 +655,6 @@
     <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.CaseCloseCode') AS CaseCloseCode
 </t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctCodeEq</t>
   </si>
   <si>
     <t>ClsFlag = ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
@@ -1662,11 +1652,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>LoanCheque
-支票檔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>對應Table</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1874,6 +1859,84 @@
   </si>
   <si>
     <t>續保保單保險起日</t>
+  </si>
+  <si>
+    <t>TMI,F09 火險保費：續保保單保險起日
+F07 暫付法務費：單據日期
+F10 帳管費：首次應繳日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單年月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX.202006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換：AS401.LADACTP</t>
+  </si>
+  <si>
+    <t>會計檔、銷帳檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanCheque
+支票檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白(1)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白(1)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白(1)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.未銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClsFlag = , AND AcctCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCodeEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計銷帳檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcReceivable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
@@ -1886,37 +1949,8 @@
 8:暫付、催收法務費：記錄號碼(8)
 9:短繳期金：撥款序號(3)
 10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
+11:暫收款-冲正：''
 11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMI,F09 火險保費：續保保單保險起日
-F07 暫付法務費：單據日期
-F10 帳管費：首次應繳日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險單年月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX.202006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcReceivable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1924,7 +1958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3036,11 +3070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
@@ -3051,22 +3085,22 @@
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>468</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="12" t="s">
@@ -3079,13 +3113,13 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -3094,7 +3128,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>11</v>
       </c>
@@ -3105,33 +3139,33 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>7</v>
       </c>
@@ -3142,7 +3176,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1">
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -3165,34 +3199,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1">
+    <row r="9" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -3206,16 +3240,16 @@
       <c r="F10" s="23"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3226,7 +3260,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="178.2">
+    <row r="12" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3245,10 +3279,10 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3267,10 +3301,10 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="35" customFormat="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3292,7 +3326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3314,7 +3348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1">
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3334,7 +3368,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3354,7 +3388,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="32.4">
+    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3366,23 +3400,23 @@
         <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>60</v>
@@ -3395,10 +3429,10 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3407,7 +3441,7 @@
         <v>70</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>71</v>
@@ -3417,10 +3451,10 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3442,16 +3476,16 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3464,7 +3498,7 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3485,10 +3519,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3497,7 +3531,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>43</v>
@@ -3508,7 +3542,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
+    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
@@ -3527,32 +3561,32 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="93">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="96">
         <v>3</v>
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="48.6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3571,22 +3605,22 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="40" customFormat="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3594,16 +3628,16 @@
       <c r="F28" s="41"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D29" s="100" t="s">
         <v>53</v>
@@ -3614,19 +3648,19 @@
       <c r="F29" s="23"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3634,16 +3668,16 @@
       <c r="F30" s="30"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D31" s="100" t="s">
         <v>61</v>
@@ -3654,13 +3688,13 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>24</v>
@@ -3673,10 +3707,10 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3695,16 +3729,16 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>37</v>
@@ -3717,16 +3751,16 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="40" customFormat="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3739,10 +3773,10 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3761,10 +3795,10 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3783,19 +3817,19 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
@@ -3806,7 +3840,7 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3825,7 +3859,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3841,7 +3875,7 @@
       </c>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3859,7 +3893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3875,11 +3909,11 @@
       </c>
       <c r="E42" s="27"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -3906,11 +3940,11 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
@@ -3918,7 +3952,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3929,224 +3963,224 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32.4">
-      <c r="A9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32.4">
-      <c r="A13" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="32.4">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="32.4">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4198,7 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
@@ -4174,17 +4208,17 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="52" customFormat="1">
+    <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4207,18 +4241,18 @@
         <v>49</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -4228,45 +4262,45 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32">
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32">
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -4276,31 +4310,31 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="32">
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F9" s="32">
         <v>6</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="34" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I9" s="35"/>
     </row>
@@ -4319,7 +4353,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="52" customWidth="1"/>
@@ -4330,83 +4364,83 @@
     <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="44"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="44"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="44" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="44" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="44" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="44" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="44" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="44" t="s">
-        <v>88</v>
-      </c>
       <c r="J9" s="108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="110"/>
       <c r="O9" s="108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P9" s="110"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
@@ -4416,15 +4450,15 @@
       <c r="O11" s="69"/>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4433,24 +4467,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4459,18 +4493,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
@@ -4480,9 +4514,9 @@
       <c r="O14" s="69"/>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
@@ -4492,9 +4526,9 @@
       <c r="O15" s="69"/>
       <c r="P15" s="59"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4502,15 +4536,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4518,15 +4552,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4534,311 +4568,311 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="44"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="44" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="44" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="44" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="44" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="44" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="44" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="44" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="44" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="44" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="44" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="44" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="44" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="44" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="44" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="44" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="44" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="44" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="44" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="44" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="44" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="44" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="44" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="44" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="44" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="44" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="44" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="44" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="44" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="44" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="44" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="44" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="44" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="44" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="44"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="44"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="44"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="44" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="44"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="44" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="44" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="44" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="44" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="44" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="44" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="44" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="44"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="44" t="s">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A83" s="45" t="s">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="46" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A84" s="46" t="s">
+      <c r="B84" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="C84" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="106">
         <v>1</v>
       </c>
@@ -4849,14 +4883,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.8" thickBot="1">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="107"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
       <c r="C86" s="107"/>
     </row>
-    <row r="87" spans="1:3" ht="16.8" thickBot="1">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="50">
         <v>2</v>
       </c>
@@ -4867,28 +4901,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="44"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="44"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="44"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="44"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="44"/>
     </row>
   </sheetData>
@@ -4913,11 +4947,11 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:P4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
@@ -4938,757 +4972,757 @@
     <col min="17" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1">
+    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="76" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="76" t="s">
+      <c r="J1" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>432</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P1" s="76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J2" s="75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M2" s="84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P2" s="82" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="32.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="88" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K3" s="78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M3" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N3" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O3" s="78" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P3" s="82" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="32.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="75" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="L4" s="78" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M4" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="32.4">
-      <c r="A5" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>254</v>
-      </c>
       <c r="E5" s="82" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="75" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="N5" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O5" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32.4">
-      <c r="A6" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>254</v>
-      </c>
       <c r="E6" s="82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J6" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="L6" s="78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P6" s="82" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="88" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K7" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L7" s="78"/>
       <c r="M7" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="88" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L8" s="78"/>
       <c r="M8" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O8" s="78"/>
     </row>
-    <row r="9" spans="1:16" ht="32.4">
+    <row r="9" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="G9" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="H9" s="77" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>420</v>
-      </c>
       <c r="I9" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L9" s="78"/>
       <c r="M9" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O9" s="78"/>
       <c r="P9" s="77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10" s="79">
         <v>310</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F10" s="80"/>
       <c r="I10" s="75"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="79">
         <v>320</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F11" s="80"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="79">
         <v>330</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F12" s="80"/>
       <c r="I12" s="75"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" s="79">
         <v>340</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="80"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:16" ht="32.4">
+    <row r="14" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P14" s="77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F16" s="80"/>
       <c r="I16" s="75"/>
       <c r="J16" s="51"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F17" s="80"/>
       <c r="I17" s="75"/>
       <c r="J17" s="51"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F18" s="80"/>
       <c r="I18" s="75"/>
       <c r="J18" s="51"/>
     </row>
-    <row r="19" spans="1:16" ht="32.4">
+    <row r="19" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D19" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>415</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>419</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="77" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P19" s="77" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="39.6" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>265</v>
-      </c>
       <c r="I20" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J20" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K20" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="M20" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O20" s="77" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="39.6" customHeight="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I21" s="75"/>
       <c r="K21" s="78"/>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
     </row>
-    <row r="22" spans="1:16" ht="39.6" customHeight="1">
+    <row r="22" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="90" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I22" s="75"/>
       <c r="K22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="78"/>
     </row>
-    <row r="23" spans="1:16" ht="39.6" customHeight="1">
+    <row r="23" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I23" s="75"/>
       <c r="K23" s="78"/>
       <c r="M23" s="78"/>
       <c r="N23" s="78"/>
     </row>
-    <row r="24" spans="1:16" ht="32.4">
+    <row r="24" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="88" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="I24" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I25" s="75"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I26" s="75"/>
+    </row>
+    <row r="27" spans="1:16" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="E24" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="77" t="s">
+      <c r="M27" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="N27" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="M24" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="N24" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O24" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="P24" s="77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="I26" s="75"/>
-    </row>
-    <row r="27" spans="1:16" ht="64.8">
-      <c r="A27" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="82" t="s">
+      <c r="L28" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="M28" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="N28" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="I27" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="K27" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="L27" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="M27" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="N27" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O27" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="P27" s="82" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="55.95" customHeight="1">
-      <c r="A28" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="K28" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="L28" s="82" t="s">
-        <v>286</v>
-      </c>
-      <c r="M28" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="N28" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O28" s="82" t="s">
-        <v>292</v>
-      </c>
       <c r="P28" s="82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5703,11 +5737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
@@ -5729,911 +5763,937 @@
     <col min="18" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
+    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="G1" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="76" t="s">
+      <c r="L1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" s="76" t="s">
+      <c r="M2" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D3" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q4" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q3" s="82" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.4">
-      <c r="A4" s="88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="32.4">
+    </row>
+    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="M5" s="78" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="O5" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P5" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="32.4">
-      <c r="A6" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>254</v>
-      </c>
       <c r="E6" s="82" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N6" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="O6" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P6" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="32.4">
-      <c r="A7" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>254</v>
-      </c>
       <c r="E7" s="82" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K7" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="M7" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="88" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="88" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P9" s="78"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P10" s="78"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>318</v>
+        <v>458</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>265</v>
+        <v>461</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K21" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L21" s="78" t="s">
-        <v>221</v>
-      </c>
       <c r="N21" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P21" s="77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="J22" s="75" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A22" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="K22" s="77" t="s">
+        <v>215</v>
+      </c>
       <c r="L22" s="78"/>
       <c r="N22" s="78"/>
       <c r="O22" s="78"/>
     </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1">
+    <row r="23" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="90" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
+        <v>295</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="J23" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="77" t="s">
+        <v>215</v>
+      </c>
       <c r="L23" s="78"/>
       <c r="N23" s="78"/>
       <c r="O23" s="78"/>
     </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1">
+    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
       <c r="L24" s="78"/>
       <c r="N24" s="78"/>
       <c r="O24" s="78"/>
     </row>
-    <row r="25" spans="1:17" ht="32.4">
+    <row r="25" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="88" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="77" t="s">
+      <c r="I25" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="H25" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I26" s="75"/>
       <c r="J26" s="75"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I27" s="75"/>
       <c r="J27" s="75"/>
     </row>
-    <row r="28" spans="1:17" ht="64.8">
+    <row r="28" spans="1:17" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="82" t="s">
+    </row>
+    <row r="29" spans="1:17" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D28" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P28" s="82" t="s">
+      <c r="Q29" s="77" t="s">
         <v>287</v>
-      </c>
-      <c r="Q28" s="77" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1">
-      <c r="A29" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J29" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="K29" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>286</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="O29" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="P29" s="82" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q29" s="77" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -122,18 +122,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>起帳總額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>傳票摘要</t>
   </si>
   <si>
     <t>最後維護日期</t>
-  </si>
-  <si>
-    <t>最後作帳日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後交易日</t>
@@ -543,10 +535,6 @@
   </si>
   <si>
     <t>對應額度</t>
-  </si>
-  <si>
-    <t>不含次日交易</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>含次日交易</t>
@@ -1594,10 +1582,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LastAcDate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>額度編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1770,10 +1754,6 @@
   <si>
     <t>RvBal</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>同RvBal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">未銷餘額 </t>
@@ -1953,12 +1933,32 @@
 11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>LastAcDate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次作帳日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次作帳日餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日帳交易:上次會計日、次日帳交易:本會計日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3070,11 +3070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
@@ -3085,22 +3085,22 @@
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="102" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="12" t="s">
@@ -3113,13 +3113,13 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -3128,7 +3128,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="102" t="s">
         <v>11</v>
       </c>
@@ -3139,33 +3139,33 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="32.4">
       <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="102" t="s">
         <v>7</v>
       </c>
@@ -3176,57 +3176,57 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="19" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" s="40" customFormat="1">
       <c r="A9" s="41">
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="41">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -3240,16 +3240,16 @@
       <c r="F10" s="23"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="41">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3260,16 +3260,16 @@
       <c r="F11" s="23"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="194.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -3279,10 +3279,10 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3291,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -3301,54 +3301,54 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="35" customFormat="1">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>67</v>
       </c>
       <c r="E14" s="32">
         <v>5</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="20">
         <v>2</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3368,7 +3368,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3388,82 +3388,82 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="32.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>21</v>
+        <v>470</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -3476,16 +3476,16 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3496,18 +3496,20 @@
       <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -3518,23 +3520,21 @@
       <c r="F23" s="23">
         <v>2</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="24">
         <v>80</v>
@@ -3542,85 +3542,85 @@
       <c r="F24" s="23"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
       <c r="A25" s="41">
         <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="20">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
       <c r="A26" s="93">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="96">
         <v>3</v>
       </c>
       <c r="F26" s="95"/>
       <c r="G26" s="97" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.6">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="24">
         <v>8</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="40" customFormat="1">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E28" s="101">
         <v>5</v>
@@ -3628,19 +3628,19 @@
       <c r="F28" s="41"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="101">
         <v>4</v>
@@ -3648,19 +3648,19 @@
       <c r="F29" s="23"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E30" s="101">
         <v>6</v>
@@ -3668,19 +3668,19 @@
       <c r="F30" s="30"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="101">
         <v>8</v>
@@ -3688,60 +3688,60 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>24</v>
+        <v>467</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="24">
         <v>8</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="24">
         <v>8</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -3751,16 +3751,16 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="40" customFormat="1">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>14</v>
@@ -3773,19 +3773,19 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
@@ -3795,19 +3795,19 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>19</v>
@@ -3817,19 +3817,19 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
@@ -3840,16 +3840,16 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="41">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -3859,32 +3859,32 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
@@ -3893,27 +3893,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="27"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -3944,7 +3944,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
@@ -3952,7 +3952,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3963,224 +3963,224 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32.4">
+      <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32.4">
+      <c r="A13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32.4">
+      <c r="A19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="32.4">
+      <c r="A20" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4198,7 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
@@ -4208,51 +4208,51 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" s="92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
       <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -4262,45 +4262,45 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
       <c r="B7" s="32">
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
       <c r="B8" s="32">
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -4310,31 +4310,31 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="32">
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F9" s="32">
         <v>6</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="34" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I9" s="35"/>
     </row>
@@ -4353,7 +4353,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="52" customWidth="1"/>
@@ -4364,83 +4364,83 @@
     <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="44"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="44"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>87</v>
-      </c>
       <c r="J9" s="108" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="110"/>
       <c r="O9" s="108" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P9" s="110"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>148</v>
-      </c>
       <c r="M10" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="44"/>
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
@@ -4450,15 +4450,15 @@
       <c r="O11" s="69"/>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L12" s="62">
         <v>300000</v>
@@ -4467,24 +4467,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" s="62">
         <v>500000</v>
@@ -4493,18 +4493,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
@@ -4514,9 +4514,9 @@
       <c r="O14" s="69"/>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
@@ -4526,9 +4526,9 @@
       <c r="O15" s="69"/>
       <c r="P15" s="59"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="61"/>
@@ -4536,15 +4536,15 @@
       <c r="M16" s="62"/>
       <c r="N16" s="59"/>
       <c r="O16" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="61"/>
@@ -4552,15 +4552,15 @@
       <c r="M17" s="62"/>
       <c r="N17" s="59"/>
       <c r="O17" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P17" s="70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
@@ -4568,311 +4568,311 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
       <c r="O18" s="65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="44"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="44"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="44"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" s="44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="44" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="44" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="44" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1">
+      <c r="A83" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="44"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1">
+      <c r="A84" s="46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="45" t="s">
+      <c r="B84" s="47" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="46" t="s">
+      <c r="C84" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="106">
         <v>1</v>
       </c>
@@ -4883,14 +4883,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1">
       <c r="A86" s="107"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
       <c r="C86" s="107"/>
     </row>
-    <row r="87" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
         <v>2</v>
       </c>
@@ -4901,28 +4901,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="45"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="44"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="44"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="44"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="44"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="44"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="44"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="44"/>
     </row>
   </sheetData>
@@ -4951,7 +4951,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
@@ -4972,757 +4972,757 @@
     <col min="17" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="76" t="s">
+      <c r="J1" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G1" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="H1" s="76" t="s">
+      <c r="M1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="76" t="s">
-        <v>427</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>430</v>
-      </c>
       <c r="P1" s="76" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6">
       <c r="A2" s="89" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J2" s="75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P2" s="82" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="32.4">
       <c r="A3" s="88" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K3" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M3" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N3" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O3" s="78" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P3" s="82" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="32.4">
       <c r="A4" s="87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="75" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="L4" s="78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M4" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="32.4">
+      <c r="A5" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>251</v>
-      </c>
       <c r="E5" s="82" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="75" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32.4">
+      <c r="A6" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>251</v>
-      </c>
       <c r="E6" s="82" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J6" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="L6" s="78" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P6" s="82" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="88" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K7" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L7" s="78"/>
       <c r="M7" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L8" s="78"/>
       <c r="M8" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O8" s="78"/>
     </row>
-    <row r="9" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="32.4">
       <c r="A9" s="79" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="G9" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>415</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>416</v>
-      </c>
       <c r="I9" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L9" s="78"/>
       <c r="M9" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O9" s="78"/>
       <c r="P9" s="77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B10" s="79">
         <v>310</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F10" s="80"/>
       <c r="I10" s="75"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" s="79">
         <v>320</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="80"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="79">
         <v>330</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F12" s="80"/>
       <c r="I12" s="75"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B13" s="79">
         <v>340</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F13" s="80"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="32.4">
       <c r="A14" s="79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="77" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P14" s="77" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F16" s="80"/>
       <c r="I16" s="75"/>
       <c r="J16" s="51"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="79" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F17" s="80"/>
       <c r="I17" s="75"/>
       <c r="J17" s="51"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="79" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="80"/>
       <c r="I18" s="75"/>
       <c r="J18" s="51"/>
     </row>
-    <row r="19" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="32.4">
       <c r="A19" s="79" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D19" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>411</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>415</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P19" s="77" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39.6" customHeight="1">
       <c r="A20" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>262</v>
-      </c>
       <c r="I20" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J20" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="K20" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="M20" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O20" s="77" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I21" s="75"/>
       <c r="K21" s="78"/>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
     </row>
-    <row r="22" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="39.6" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I22" s="75"/>
       <c r="K22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="78"/>
     </row>
-    <row r="23" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="39.6" customHeight="1">
       <c r="I23" s="75"/>
       <c r="K23" s="78"/>
       <c r="M23" s="78"/>
       <c r="N23" s="78"/>
     </row>
-    <row r="24" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="32.4">
       <c r="A24" s="88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C24" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="I24" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O24" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="I25" s="75"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="I26" s="75"/>
+    </row>
+    <row r="27" spans="1:16" ht="64.8">
+      <c r="A27" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>435</v>
+      </c>
+      <c r="M27" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="N27" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.95" customHeight="1">
+      <c r="A28" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="M28" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="N28" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" s="82" t="s">
         <v>436</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="L24" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="M24" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="N24" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O24" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="P24" s="77" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I26" s="75"/>
-    </row>
-    <row r="27" spans="1:16" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G27" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="J27" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="K27" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="M27" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="N27" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O27" s="82" t="s">
-        <v>284</v>
-      </c>
-      <c r="P27" s="82" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="K28" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="M28" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="N28" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O28" s="82" t="s">
-        <v>289</v>
-      </c>
-      <c r="P28" s="82" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5741,7 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
@@ -5763,937 +5763,937 @@
     <col min="18" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="G1" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="76" t="s">
+      <c r="L1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="76"/>
       <c r="F2" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="76" t="s">
+      <c r="M2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
       <c r="A3" s="89" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D3" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32.4">
+      <c r="A4" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q4" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q3" s="82" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="M5" s="78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N5" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32.4">
+      <c r="A6" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="O5" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>251</v>
-      </c>
       <c r="E6" s="82" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N6" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O6" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32.4">
+      <c r="A7" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P6" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>251</v>
-      </c>
       <c r="E7" s="82" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K7" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="M7" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="N7" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="88" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M9" s="78"/>
       <c r="N9" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P9" s="78"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="79" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P10" s="78"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B11" s="79">
         <v>310</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B12" s="79">
         <v>320</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B13" s="79">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B14" s="79">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F15" s="80"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="79" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="75"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="79" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="75"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="79" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="88" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K21" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="L21" s="78" t="s">
-        <v>218</v>
-      </c>
       <c r="N21" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P21" s="77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="39.6" customHeight="1">
+      <c r="A22" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>454</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="J22" s="75" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="E22" s="77" t="s">
-        <v>458</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>459</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="I22" s="75" t="s">
-        <v>464</v>
-      </c>
-      <c r="J22" s="75" t="s">
-        <v>277</v>
-      </c>
       <c r="K22" s="77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L22" s="78"/>
       <c r="N22" s="78"/>
       <c r="O22" s="78"/>
     </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K23" s="77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L23" s="78"/>
       <c r="N23" s="78"/>
       <c r="O23" s="78"/>
     </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="39.6" customHeight="1">
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
       <c r="L24" s="78"/>
       <c r="N24" s="78"/>
       <c r="O24" s="78"/>
     </row>
-    <row r="25" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>460</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="77" t="s">
+      <c r="I25" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="H25" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17">
       <c r="I26" s="75"/>
       <c r="J26" s="75"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="I27" s="75"/>
       <c r="J27" s="75"/>
     </row>
-    <row r="28" spans="1:17" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="82" t="s">
+    </row>
+    <row r="29" spans="1:17" ht="55.95" customHeight="1">
+      <c r="A29" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P28" s="82" t="s">
+      <c r="Q29" s="77" t="s">
         <v>284</v>
-      </c>
-      <c r="Q28" s="77" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H29" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J29" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="K29" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="L29" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="O29" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="P29" s="82" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q29" s="77" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1C751-832F-47FC-B373-8271A3BEB641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">業務檔對應!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="472">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1919,13 +1920,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>LastAcDate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次作帳日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次作帳日餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日帳交易:上次會計日、次日帳交易:本會計日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevInsuNo原保單號碼(17)+批單號碼(1)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
 2:擔保放款、催收款項 : 撥款序號(3)
 3:會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
 4:暫收款－支票：支票帳號(9)-支票號碼(7) 
 5:未收帳管費：第一筆撥款序號(3) 
 6:未收契變手續費：契變日期(8,西元)+契變序號(02)
-7:未收、暫收、暫付、催收火險保費：原保險單號碼
+7:未收、暫收、暫付、催收火險保費：原保單號碼(17)+批單號碼(1)
 8:暫付、催收法務費：記錄號碼(8)
 9:短繳期金：撥款序號(3)
 10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
@@ -1933,31 +1958,11 @@
 11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>LastAcDate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次作帳日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次作帳日餘額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日帳交易:上次會計日、次日帳交易:本會計日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起帳金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2698,9 +2703,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2857,6 +2862,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2892,6 +2914,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3067,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3279,7 +3318,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3463,7 +3502,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -3497,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3694,10 +3733,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>60</v>
@@ -3707,7 +3746,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3936,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -4191,7 +4230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4346,7 +4385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -5726,7 +5765,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5734,11 +5773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -5873,7 +5912,7 @@
         <v>266</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="I3" s="75" t="s">
         <v>273</v>
@@ -5920,7 +5959,7 @@
         <v>266</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="I4" s="75" t="s">
         <v>273</v>
@@ -5968,7 +6007,7 @@
         <v>266</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="I5" s="75" t="s">
         <v>273</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1C751-832F-47FC-B373-8271A3BEB641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF6CA9-5A98-4DB3-BB43-075462A238B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">業務檔對應!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1955,7 +1945,7 @@
 9:短繳期金：撥款序號(3)
 10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
 11:暫收款-冲正：''
-11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
+11:聯貸手續費:SL-費用項目(2)-流水號(3)-攤提年月(YYYMM)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2365,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2393,10 +2383,10 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2409,9 +2399,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2423,9 +2410,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2441,22 +2425,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2480,24 +2461,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2519,29 +2482,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
@@ -2550,16 +2504,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2574,9 +2528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,61 +2543,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3109,26 +3051,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="7" t="s">
         <v>464</v>
       </c>
@@ -3140,82 +3082,82 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="19" customFormat="1">
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -3234,95 +3176,95 @@
       <c r="F8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1">
-      <c r="A9" s="41">
+    <row r="9" spans="1:7">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="21" t="s">
         <v>344</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="28" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41">
+      <c r="A10" s="18">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>7</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41">
+      <c r="A11" s="18">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>3</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="194.4">
-      <c r="A12" s="41">
+      <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>30</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="25" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="41">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3335,7 +3277,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>11</v>
       </c>
       <c r="F13" s="8"/>
@@ -3343,30 +3285,30 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="35" customFormat="1">
-      <c r="A14" s="41">
+    <row r="14" spans="1:7" s="32" customFormat="1">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="29">
         <v>5</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="41">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3379,16 +3321,16 @@
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>2</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1">
-      <c r="A16" s="41">
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3401,14 +3343,14 @@
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>4</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="41">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3421,168 +3363,168 @@
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>3</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="32.4">
-      <c r="A18" s="41">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>1</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
-      <c r="A19" s="41">
+    <row r="19" spans="1:7" s="32" customFormat="1" ht="32.4">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
-      <c r="A20" s="41">
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="81">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>371</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="34" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="41">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>16</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>2</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="41">
+      <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>428</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>16</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>2</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="21" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="41">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>16</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>2</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="41">
+      <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>80</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
-      <c r="A25" s="41">
+      <c r="F24" s="21"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
+      <c r="A25" s="18">
         <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
       </c>
@@ -3595,7 +3537,7 @@
       <c r="D25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
@@ -3603,350 +3545,349 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="98" customFormat="1" ht="32.4">
-      <c r="A26" s="93">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="32.4">
+      <c r="A26" s="24">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="80">
         <v>3</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="97" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="81" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48.6">
-      <c r="A27" s="41">
+      <c r="A27" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <v>8</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="40" customFormat="1">
-      <c r="A28" s="41">
+    <row r="28" spans="1:7">
+      <c r="A28" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="85">
         <v>5</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="41">
+      <c r="A29" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E29" s="85">
         <v>4</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="28"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="41">
+      <c r="A30" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="83" t="s">
         <v>368</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="85">
         <v>6</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="41">
+      <c r="A31" s="18">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="83" t="s">
         <v>369</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="85">
         <v>8</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="41">
+      <c r="A32" s="18">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>466</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <v>8</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="41">
+      <c r="A33" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <v>8</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="41">
+      <c r="A34" s="18">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <v>5</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="40" customFormat="1">
-      <c r="A35" s="41">
+    <row r="35" spans="1:7">
+      <c r="A35" s="18">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="22">
         <v>4</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="41">
+      <c r="A36" s="18">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <v>6</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="41">
+      <c r="A37" s="18">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="22">
         <v>8</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="41">
+      <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>160</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="18">
         <v>300</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="41">
+      <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="22">
         <v>6</v>
       </c>
-      <c r="G39" s="30"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="41">
+      <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="41">
+      <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="41">
+      <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="27"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="44" spans="1:7">
       <c r="F44" s="11"/>
@@ -4108,7 +4049,7 @@
       <c r="B11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="21" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4247,13 +4188,13 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="52" customFormat="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="52" t="s">
+      <c r="A3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4279,103 +4220,103 @@
       <c r="H5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="77" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
-      <c r="B6" s="32">
+    <row r="6" spans="1:9" s="32" customFormat="1" ht="164.4" customHeight="1">
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="29">
         <v>1</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="32" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
-      <c r="B7" s="32">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="78" customHeight="1">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B8" s="32">
+    <row r="8" spans="1:9" s="32" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B8" s="29">
         <v>3</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>4</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="29">
         <v>6</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4395,8 +4336,8 @@
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="13" width="8.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.77734375" customWidth="1"/>
     <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
@@ -4404,565 +4345,558 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="44"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="44"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="108" t="s">
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="P9" s="110"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="44"/>
-      <c r="J10" s="53" t="s">
+      <c r="A10" s="35"/>
+      <c r="J10" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="45" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="44"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="59"/>
+      <c r="A11" s="35"/>
+      <c r="J11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="50">
         <v>300000</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="50">
         <v>0</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="47" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="50">
         <v>500000</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="50">
         <v>0</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="47" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="59"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="59"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="63" t="s">
+      <c r="J16" s="51"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="70" t="s">
+      <c r="P16" s="57" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="63" t="s">
+      <c r="J17" s="51"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="P17" s="70" t="s">
+      <c r="P17" s="57" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="65" t="s">
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="58" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="44"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="44"/>
+      <c r="A23" s="35"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="44"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="44"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="35" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="35" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="44"/>
+      <c r="A62" s="35"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="44"/>
+      <c r="A63" s="35"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="44"/>
+      <c r="A64" s="35"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="35" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="44"/>
+      <c r="A66" s="35"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="35" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="44"/>
+      <c r="A81" s="35"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="38" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="106">
+      <c r="A85" s="90">
         <v>1</v>
       </c>
-      <c r="B85" s="48">
+      <c r="B85" s="39">
         <v>3</v>
       </c>
-      <c r="C85" s="106">
+      <c r="C85" s="90">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="107"/>
-      <c r="B86" s="49">
+      <c r="A86" s="91"/>
+      <c r="B86" s="40">
         <v>4</v>
       </c>
-      <c r="C86" s="107"/>
+      <c r="C86" s="91"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A87" s="50">
+      <c r="A87" s="41">
         <v>2</v>
       </c>
-      <c r="B87" s="49">
+      <c r="B87" s="40">
         <v>4</v>
       </c>
-      <c r="C87" s="49">
+      <c r="C87" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="45"/>
+      <c r="A88" s="36"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="44"/>
+      <c r="A89" s="35"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="44"/>
+      <c r="A90" s="35"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="44"/>
+      <c r="A91" s="35"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="44"/>
+      <c r="A92" s="35"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="44"/>
+      <c r="A93" s="35"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="44"/>
+      <c r="A94" s="35"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="44"/>
+      <c r="A95" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4992,51 +4926,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="8" style="77" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="77" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="77" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="77" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="77" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="77" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" style="77" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="77" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.44140625" style="77" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="53" style="77" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="77"/>
+    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8" style="62" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="62" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="62" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="62" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="62" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="62" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="62" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="62" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.44140625" style="62" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="53" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="86" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:16" s="71" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A1" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="63" t="s">
         <v>423</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -5057,710 +4991,691 @@
       <c r="O1" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="63" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="75" customFormat="1" ht="48.6">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:16" ht="48.6">
+      <c r="A2" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="62" t="s">
         <v>418</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="67" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="P3" s="82" t="s">
+      <c r="P3" s="67" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="75" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="67" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="32.4">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O5" s="91" t="s">
+      <c r="O5" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="P5" s="82" t="s">
+      <c r="P5" s="67" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="32.4">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="75" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="67" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78" t="s">
+      <c r="L7" s="64"/>
+      <c r="M7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="64" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78" t="s">
+      <c r="L8" s="64"/>
+      <c r="M8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="64"/>
     </row>
     <row r="9" spans="1:16" ht="32.4">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78" t="s">
+      <c r="L9" s="64"/>
+      <c r="M9" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="77" t="s">
+      <c r="O9" s="64"/>
+      <c r="P9" s="62" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="65">
         <v>310</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="I10" s="75"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="65">
         <v>320</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="I11" s="75"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="65">
         <v>330</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="I12" s="75"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="65">
         <v>340</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="I13" s="75"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="32.4">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="P14" s="77" t="s">
+      <c r="P14" s="62" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="51"/>
+      <c r="F15" s="66"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="51"/>
+      <c r="F16" s="66"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="51"/>
+      <c r="F17" s="66"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="51"/>
+      <c r="F18" s="66"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="32.4">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="65" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="P19" s="77" t="s">
+      <c r="P19" s="62" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M20" s="78" t="s">
+      <c r="M20" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O20" s="77" t="s">
+      <c r="O20" s="62" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="K21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="K22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="K22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:16" ht="39.6" customHeight="1">
-      <c r="I23" s="75"/>
-      <c r="K23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
+      <c r="K23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="32.4">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L24" s="77" t="s">
+      <c r="L24" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="M24" s="78" t="s">
+      <c r="M24" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="62" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="I26" s="75"/>
-    </row>
     <row r="27" spans="1:16" ht="64.8">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="77" t="s">
+      <c r="H27" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="77" t="s">
+      <c r="J27" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="K27" s="78" t="s">
+      <c r="K27" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="M27" s="77" t="s">
+      <c r="M27" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="82" t="s">
+      <c r="O27" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="P27" s="82" t="s">
+      <c r="P27" s="67" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="55.95" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="K28" s="78" t="s">
+      <c r="K28" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L28" s="82" t="s">
+      <c r="L28" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M28" s="77" t="s">
+      <c r="M28" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="N28" s="78" t="s">
+      <c r="N28" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O28" s="82" t="s">
+      <c r="O28" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="P28" s="82" t="s">
+      <c r="P28" s="67" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5782,55 +5697,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="8" style="77" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="77" customWidth="1"/>
-    <col min="12" max="12" width="15" style="77" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="77" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="77" customWidth="1"/>
-    <col min="15" max="15" width="8" style="77" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" style="77" customWidth="1"/>
-    <col min="17" max="17" width="53" style="77" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="77"/>
+    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8" style="62" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="15" style="62" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="62" customWidth="1"/>
+    <col min="15" max="15" width="8" style="62" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" style="62" customWidth="1"/>
+    <col min="17" max="17" width="53" style="62" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="86" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:17" s="71" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A1" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="63" t="s">
         <v>222</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -5851,28 +5766,29 @@
       <c r="P1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="71" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="75" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:17" ht="58.2" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="F2" s="76" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="F2" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="63" t="s">
         <v>226</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -5894,844 +5810,814 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="75" customFormat="1" ht="48.6">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:17" ht="48.6">
+      <c r="A3" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="69" t="s">
         <v>445</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="67" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="67" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="67" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="75" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="Q6" s="82" t="s">
+      <c r="Q6" s="67" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="75" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="78" t="s">
+      <c r="P7" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="Q7" s="82" t="s">
+      <c r="Q7" s="67" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78" t="s">
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="78" t="s">
+      <c r="O8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P8" s="78" t="s">
+      <c r="P8" s="64" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78" t="s">
+      <c r="M9" s="64"/>
+      <c r="N9" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O9" s="78" t="s">
+      <c r="O9" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P9" s="78"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78" t="s">
+      <c r="M10" s="64"/>
+      <c r="N10" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="78"/>
+      <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="65">
         <v>310</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="65">
         <v>320</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="65">
         <v>330</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="65">
         <v>340</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="77" t="s">
+      <c r="F15" s="66"/>
+      <c r="K15" s="62" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="51"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="51"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="51"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="51"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="62" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="N21" s="78" t="s">
+      <c r="N21" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="78" t="s">
+      <c r="O21" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P21" s="77" t="s">
+      <c r="P21" s="62" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="62" t="s">
         <v>452</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
+      <c r="L22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="77" t="s">
+      <c r="H23" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="I23" s="75" t="s">
+      <c r="I23" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
+      <c r="L23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
     </row>
     <row r="24" spans="1:17" ht="39.6" customHeight="1">
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="L24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
+      <c r="L24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="32.4">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="67" t="s">
         <v>455</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="77" t="s">
+      <c r="K25" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="L25" s="78" t="s">
+      <c r="L25" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="N25" s="78" t="s">
+      <c r="N25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O25" s="78" t="s">
+      <c r="O25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P25" s="77" t="s">
+      <c r="P25" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="Q25" s="77" t="s">
+      <c r="Q25" s="62" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-    </row>
     <row r="28" spans="1:17" ht="64.8">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="K28" s="77" t="s">
+      <c r="K28" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="L28" s="78" t="s">
+      <c r="L28" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="N28" s="77" t="s">
+      <c r="N28" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="O28" s="78" t="s">
+      <c r="O28" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P28" s="82" t="s">
+      <c r="P28" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="Q28" s="77" t="s">
+      <c r="Q28" s="62" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H29" s="77" t="s">
+      <c r="H29" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="K29" s="77" t="s">
+      <c r="K29" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="L29" s="78" t="s">
+      <c r="L29" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M29" s="82" t="s">
+      <c r="M29" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="78" t="s">
+      <c r="O29" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="P29" s="82" t="s">
+      <c r="P29" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="Q29" s="77" t="s">
+      <c r="Q29" s="62" t="s">
         <v>284</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF6CA9-5A98-4DB3-BB43-075462A238B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">業務檔對應!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1505,14 +1504,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1:會計銷帳科目
-2:業務銷帳科目
-3:未收費用
-4:短繳期金
-5:另收欠款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>acrvFacmNoRange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1948,11 +1939,19 @@
 11:聯貸手續費:SL-費用項目(2)-流水號(3)-攤提年月(YYYMM)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1:會計銷帳科目
+2:業務銷帳科目
+3:未收費用
+4:短繳期金
+5:另收欠款(企金費用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2645,9 +2644,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2804,23 +2803,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2856,23 +2838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3048,22 +3013,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="11"/>
+    <col min="4" max="4" width="15.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3072,10 +3037,10 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -3120,7 +3085,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="33">
       <c r="A5" s="89" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3195,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -3241,7 +3206,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="194.4">
+    <row r="12" spans="1:7" ht="198">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3260,7 +3225,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3369,7 +3334,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="32.4">
+    <row r="18" spans="1:7" ht="33">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3391,7 +3356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="32" customFormat="1" ht="32.4">
+    <row r="19" spans="1:7" s="32" customFormat="1" ht="33">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3413,7 +3378,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="32" customFormat="1" ht="81">
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="82.5">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3432,7 +3397,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="34" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3444,7 +3409,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -3463,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>428</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3478,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3523,7 +3488,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="32.4">
+    <row r="25" spans="1:7" ht="33">
       <c r="A25" s="18">
         <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
@@ -3545,7 +3510,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="32.4">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="33">
       <c r="A26" s="24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3567,7 +3532,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="48.6">
+    <row r="27" spans="1:7" ht="49.5">
       <c r="A27" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3586,7 +3551,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3674,10 +3639,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>60</v>
@@ -3687,7 +3652,7 @@
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3806,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>160</v>
@@ -3916,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3924,11 +3889,11 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3943,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
+    <row r="2" spans="1:3" ht="37.15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -3962,7 +3927,7 @@
         <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3978,13 +3943,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4003,7 +3968,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>342</v>
@@ -4011,7 +3976,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>164</v>
@@ -4020,7 +3985,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.4">
+    <row r="9" spans="1:3" ht="33">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -4053,7 +4018,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
+    <row r="12" spans="1:3" ht="37.15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>333</v>
       </c>
@@ -4064,7 +4029,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32.4">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4121,46 +4086,46 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33">
+      <c r="A19" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="32.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="33">
+      <c r="A20" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="32.4">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4171,21 +4136,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="5.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4224,7 +4189,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="32" customFormat="1" ht="164.4" customHeight="1">
+    <row r="6" spans="1:9" s="32" customFormat="1" ht="164.45" customHeight="1">
       <c r="B6" s="29">
         <v>1</v>
       </c>
@@ -4301,20 +4266,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>448</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>449</v>
       </c>
       <c r="F9" s="29">
         <v>6</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I9" s="32"/>
     </row>
@@ -4326,22 +4291,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4829,12 +4794,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.8" thickBot="1">
+    <row r="83" spans="1:3" ht="17.25" thickBot="1">
       <c r="A83" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.8" thickBot="1">
+    <row r="84" spans="1:3" ht="17.25" thickBot="1">
       <c r="A84" s="37" t="s">
         <v>134</v>
       </c>
@@ -4856,14 +4821,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.8" thickBot="1">
+    <row r="86" spans="1:3" ht="17.25" thickBot="1">
       <c r="A86" s="91"/>
       <c r="B86" s="40">
         <v>4</v>
       </c>
       <c r="C86" s="91"/>
     </row>
-    <row r="87" spans="1:3" ht="16.8" thickBot="1">
+    <row r="87" spans="1:3" ht="17.25" thickBot="1">
       <c r="A87" s="41">
         <v>2</v>
       </c>
@@ -4916,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -4924,30 +4889,30 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="62" customWidth="1"/>
     <col min="6" max="6" width="8" style="62" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="62" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="62" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="62" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.625" style="62" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="62" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="62" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="62" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="62" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" style="62" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.625" style="62" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="62" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="62" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.44140625" style="62" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" style="62" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="53" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="62"/>
+    <col min="17" max="16384" width="8.875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="71" customFormat="1" ht="49.2" customHeight="1">
+    <row r="1" spans="1:16" s="71" customFormat="1" ht="49.15" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="71" t="s">
         <v>218</v>
@@ -4956,31 +4921,31 @@
         <v>219</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>310</v>
       </c>
       <c r="F1" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>423</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>227</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>21</v>
@@ -4989,15 +4954,15 @@
         <v>233</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="48.6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="49.5">
       <c r="A2" s="74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="62" t="s">
@@ -5010,7 +4975,7 @@
         <v>309</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2" s="62" t="s">
         <v>262</v>
@@ -5037,10 +5002,10 @@
         <v>352</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="32.4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="33">
       <c r="A3" s="73" t="s">
         <v>200</v>
       </c>
@@ -5081,10 +5046,10 @@
         <v>353</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="32.4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33">
       <c r="A4" s="72" t="s">
         <v>210</v>
       </c>
@@ -5099,7 +5064,7 @@
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H4" s="62" t="s">
         <v>262</v>
@@ -5126,10 +5091,10 @@
         <v>240</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="32.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="33">
       <c r="A5" s="73" t="s">
         <v>199</v>
       </c>
@@ -5144,7 +5109,7 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>263</v>
@@ -5171,10 +5136,10 @@
         <v>301</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33">
       <c r="A6" s="73" t="s">
         <v>209</v>
       </c>
@@ -5216,7 +5181,7 @@
         <v>241</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5227,12 +5192,12 @@
         <v>287</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>274</v>
@@ -5251,7 +5216,7 @@
         <v>245</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5262,7 +5227,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -5287,24 +5252,24 @@
       </c>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:16" ht="32.4">
+    <row r="9" spans="1:16" ht="33">
       <c r="A9" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>302</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G9" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="H9" s="62" t="s">
         <v>411</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>412</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>274</v>
@@ -5324,7 +5289,7 @@
       </c>
       <c r="O9" s="64"/>
       <c r="P9" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5375,7 +5340,7 @@
       </c>
       <c r="F13" s="66"/>
     </row>
-    <row r="14" spans="1:16" ht="32.4">
+    <row r="14" spans="1:16" ht="33">
       <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
@@ -5383,22 +5348,22 @@
         <v>304</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="G14" s="62" t="s">
-        <v>415</v>
-      </c>
       <c r="H14" s="62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J14" s="62" t="s">
         <v>329</v>
       </c>
       <c r="P14" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5441,27 +5406,27 @@
       <c r="F18" s="66"/>
       <c r="J18" s="42"/>
     </row>
-    <row r="19" spans="1:16" ht="32.4">
+    <row r="19" spans="1:16" ht="33">
       <c r="A19" s="65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>327</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J19" s="62" t="s">
         <v>330</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="39.6" customHeight="1">
@@ -5472,13 +5437,13 @@
         <v>258</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>312</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>142</v>
@@ -5502,7 +5467,7 @@
         <v>245</v>
       </c>
       <c r="O20" s="62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39.6" customHeight="1">
@@ -5513,7 +5478,7 @@
         <v>296</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K21" s="64"/>
       <c r="M21" s="64"/>
@@ -5527,7 +5492,7 @@
         <v>295</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>312</v>
@@ -5547,7 +5512,7 @@
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
     </row>
-    <row r="24" spans="1:16" ht="32.4">
+    <row r="24" spans="1:16" ht="33">
       <c r="A24" s="73" t="s">
         <v>290</v>
       </c>
@@ -5555,7 +5520,7 @@
         <v>257</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E24" s="67" t="s">
         <v>311</v>
@@ -5591,7 +5556,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="64.8">
+    <row r="27" spans="1:16" ht="66">
       <c r="A27" s="72" t="s">
         <v>282</v>
       </c>
@@ -5620,7 +5585,7 @@
         <v>215</v>
       </c>
       <c r="L27" s="67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M27" s="62" t="s">
         <v>250</v>
@@ -5632,10 +5597,10 @@
         <v>281</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="55.95" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.9" customHeight="1">
       <c r="A28" s="73" t="s">
         <v>251</v>
       </c>
@@ -5676,11 +5641,11 @@
         <v>286</v>
       </c>
       <c r="P28" s="67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:P1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5688,36 +5653,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="62" customWidth="1"/>
     <col min="6" max="6" width="8" style="62" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="62" customWidth="1"/>
     <col min="12" max="12" width="15" style="62" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="62" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="62" customWidth="1"/>
     <col min="15" max="15" width="8" style="62" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" style="62" customWidth="1"/>
+    <col min="16" max="16" width="31.5" style="62" customWidth="1"/>
     <col min="17" max="17" width="53" style="62" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="62"/>
+    <col min="18" max="16384" width="8.875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="71" customFormat="1" ht="49.2" customHeight="1">
+    <row r="1" spans="1:17" s="71" customFormat="1" ht="49.15" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>220</v>
       </c>
@@ -5728,7 +5693,7 @@
         <v>219</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>310</v>
@@ -5767,10 +5732,10 @@
         <v>235</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="58.2" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="58.15" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>217</v>
       </c>
@@ -5810,9 +5775,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="48.6">
+    <row r="3" spans="1:17" ht="49.5">
       <c r="A3" s="74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="62" t="s">
@@ -5828,7 +5793,7 @@
         <v>266</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>273</v>
@@ -5852,13 +5817,13 @@
         <v>245</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q3" s="67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33">
       <c r="A4" s="73" t="s">
         <v>200</v>
       </c>
@@ -5875,7 +5840,7 @@
         <v>266</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>273</v>
@@ -5899,13 +5864,13 @@
         <v>245</v>
       </c>
       <c r="P4" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="67" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="32.4">
+    <row r="5" spans="1:17" ht="33">
       <c r="A5" s="72" t="s">
         <v>210</v>
       </c>
@@ -5923,7 +5888,7 @@
         <v>266</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>273</v>
@@ -5953,7 +5918,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32.4">
+    <row r="6" spans="1:17" ht="33">
       <c r="A6" s="73" t="s">
         <v>199</v>
       </c>
@@ -6001,7 +5966,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="32.4">
+    <row r="7" spans="1:17" ht="33">
       <c r="A7" s="73" t="s">
         <v>209</v>
       </c>
@@ -6057,7 +6022,7 @@
         <v>287</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>288</v>
@@ -6066,7 +6031,7 @@
         <v>289</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>273</v>
@@ -6088,7 +6053,7 @@
         <v>245</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -6099,7 +6064,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F9" s="66" t="s">
         <v>288</v>
@@ -6173,7 +6138,7 @@
         <v>187</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="66" t="s">
         <v>288</v>
@@ -6196,7 +6161,7 @@
         <v>188</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F12" s="66" t="s">
         <v>288</v>
@@ -6219,7 +6184,7 @@
         <v>189</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F13" s="66" t="s">
         <v>288</v>
@@ -6242,7 +6207,7 @@
         <v>190</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F14" s="66" t="s">
         <v>288</v>
@@ -6274,7 +6239,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>288</v>
@@ -6295,7 +6260,7 @@
         <v>192</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F17" s="66" t="s">
         <v>288</v>
@@ -6316,7 +6281,7 @@
         <v>193</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F18" s="66" t="s">
         <v>288</v>
@@ -6337,7 +6302,7 @@
         <v>194</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F19" s="66" t="s">
         <v>288</v>
@@ -6358,7 +6323,7 @@
         <v>327</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K20" s="62" t="s">
         <v>328</v>
@@ -6372,19 +6337,19 @@
         <v>258</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>265</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J21" s="62" t="s">
         <v>274</v>
@@ -6413,22 +6378,22 @@
         <v>296</v>
       </c>
       <c r="D22" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="62" t="s">
         <v>452</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>453</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>293</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H22" s="62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J22" s="62" t="s">
         <v>274</v>
@@ -6448,7 +6413,7 @@
         <v>295</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>312</v>
@@ -6460,10 +6425,10 @@
         <v>292</v>
       </c>
       <c r="H23" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="I23" s="62" t="s">
         <v>458</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>459</v>
       </c>
       <c r="J23" s="62" t="s">
         <v>274</v>
@@ -6480,7 +6445,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:17" ht="32.4">
+    <row r="25" spans="1:17" ht="33">
       <c r="A25" s="73" t="s">
         <v>290</v>
       </c>
@@ -6488,7 +6453,7 @@
         <v>257</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E25" s="67" t="s">
         <v>311</v>
@@ -6527,7 +6492,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="64.8">
+    <row r="28" spans="1:17" ht="66">
       <c r="A28" s="72" t="s">
         <v>282</v>
       </c>
@@ -6574,7 +6539,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1">
+    <row r="29" spans="1:17" ht="55.9" customHeight="1">
       <c r="A29" s="73" t="s">
         <v>251</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="476">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1757,16 +1757,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>CloseDate銷號日期 =0：未銷, &gt;0：已銷
-OverdueDate轉催收日=0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDate銷號日期 =0：未銷, &gt;0：已銷
-OverdueDate轉催收日&gt;0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDetail
 會計帳務明細檔</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -1801,22 +1791,6 @@
   </si>
   <si>
     <t>短繳清償違約金UnpaidCloseBreach</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-StatusCode 處理代碼=0:正常
-AcDate會計日期=0：未銷, &gt;0：已銷</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusCode 處理代碼=1:借支
-&amp;&amp; AcDate會計日期=0：未銷, &gt;0：已銷</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusCode 處理代碼=2:催收
-&amp;&amp; AcDate會計日期=0：未銷, &gt;0：已銷</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1946,6 +1920,53 @@
 4:短繳期金
 5:另收欠款(企金費用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計檔、業務檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計檔、銷帳檔、業務檔</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuRenew
+火險單續保檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未銷:
+StatusCode 處理代碼=0:正常
+AcDate會計日期=0：未銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>已銷未解付：
+StatusCode 處理代碼=0:正常 and AcDate &gt; 0：已銷
+解付日期：SystemParas.InsuSettleDate ex.20220321 解付保險年月：202202
+未解付條件:
+InsuYearMonth &gt;= SystemParas.InsuSettleDate / 100</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode 處理代碼=1:借支
+&amp;&amp; AcDate會計日期=0：未銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode 處理代碼=2:催收
+&amp;&amp; AcDate會計日期=0：未銷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate銷號日期 =0：未銷
+OverdueDate轉催收日=0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate銷號日期 =0：未銷
+OverdueDate轉催收日&gt;0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3016,19 +3037,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="11"/>
+    <col min="4" max="4" width="15.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3037,10 +3058,10 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -3085,7 +3106,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="33">
+    <row r="5" spans="1:7" ht="32.4">
       <c r="A5" s="89" t="s">
         <v>5</v>
       </c>
@@ -3206,7 +3227,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="198">
+    <row r="12" spans="1:7" ht="194.4">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3225,7 +3246,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="25" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3334,7 +3355,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="33">
+    <row r="18" spans="1:7" ht="32.4">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3356,7 +3377,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="32" customFormat="1" ht="33">
+    <row r="19" spans="1:7" s="32" customFormat="1" ht="32.4">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3378,7 +3399,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="32" customFormat="1" ht="82.5">
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="81">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3397,7 +3418,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="34" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3409,7 +3430,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -3443,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3488,7 +3509,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="33">
+    <row r="25" spans="1:7" ht="32.4">
       <c r="A25" s="18">
         <f t="shared" ref="A25:A42" si="1">A24+1</f>
         <v>17</v>
@@ -3510,7 +3531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="33">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="32.4">
       <c r="A26" s="24">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3532,7 +3553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="49.5">
+    <row r="27" spans="1:7" ht="48.6">
       <c r="A27" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3551,7 +3572,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3639,10 +3660,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>60</v>
@@ -3652,7 +3673,7 @@
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3771,7 +3792,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>160</v>
@@ -3889,11 +3910,11 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3908,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.15" customHeight="1">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -3968,7 +3989,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>342</v>
@@ -3976,7 +3997,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>164</v>
@@ -3985,7 +4006,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33">
+    <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.15" customHeight="1">
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>333</v>
       </c>
@@ -4029,7 +4050,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4095,7 +4116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33">
+    <row r="19" spans="1:3" ht="32.4">
       <c r="A19" s="1" t="s">
         <v>380</v>
       </c>
@@ -4106,7 +4127,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="33">
+    <row r="20" spans="1:3" ht="32.4">
       <c r="A20" s="1" t="s">
         <v>383</v>
       </c>
@@ -4143,14 +4164,14 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4189,7 +4210,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="32" customFormat="1" ht="164.45" customHeight="1">
+    <row r="6" spans="1:9" s="32" customFormat="1" ht="164.4" customHeight="1">
       <c r="B6" s="29">
         <v>1</v>
       </c>
@@ -4266,20 +4287,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F9" s="29">
         <v>6</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="31" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I9" s="32"/>
     </row>
@@ -4298,15 +4319,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4794,12 +4815,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17.25" thickBot="1">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17.25" thickBot="1">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="37" t="s">
         <v>134</v>
       </c>
@@ -4821,14 +4842,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17.25" thickBot="1">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1">
       <c r="A86" s="91"/>
       <c r="B86" s="40">
         <v>4</v>
       </c>
       <c r="C86" s="91"/>
     </row>
-    <row r="87" spans="1:3" ht="17.25" thickBot="1">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="41">
         <v>2</v>
       </c>
@@ -4882,35 +4903,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="62" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
     <col min="6" max="6" width="8" style="62" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.625" style="62" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="62" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" style="62" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="62" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="62" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="62" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="62" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.625" style="62" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="62" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="62" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="62" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="62" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5" style="62" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="53" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="62"/>
+    <col min="15" max="15" width="31.44140625" style="62" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="89" style="62" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="71" customFormat="1" ht="49.15" customHeight="1">
+    <row r="1" spans="1:16" s="71" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="63" t="s">
         <v>418</v>
       </c>
@@ -4957,10 +4978,10 @@
         <v>425</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="49.5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="48.6">
       <c r="A2" s="74" t="s">
         <v>388</v>
       </c>
@@ -5002,21 +5023,22 @@
         <v>352</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="33">
-      <c r="A3" s="73" t="s">
-        <v>200</v>
-      </c>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="81">
+      <c r="A3" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="67"/>
       <c r="C3" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>311</v>
+        <v>267</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>467</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>266</v>
@@ -5028,43 +5050,42 @@
         <v>274</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="L3" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="64" t="s">
-        <v>353</v>
+      <c r="O3" s="69" t="s">
+        <v>352</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="33">
-      <c r="A4" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>211</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="32.4">
+      <c r="A4" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>239</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="65"/>
+        <v>468</v>
+      </c>
       <c r="G4" s="62" t="s">
-        <v>408</v>
+        <v>266</v>
       </c>
       <c r="H4" s="62" t="s">
         <v>262</v>
@@ -5073,7 +5094,7 @@
         <v>274</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>215</v>
@@ -5088,43 +5109,43 @@
         <v>245</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="33">
-      <c r="A5" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="32.4">
+      <c r="A5" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>274</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M5" s="64" t="s">
         <v>245</v>
@@ -5132,38 +5153,38 @@
       <c r="N5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O5" s="76" t="s">
-        <v>301</v>
+      <c r="O5" s="64" t="s">
+        <v>240</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="33">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32.4">
       <c r="A6" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>248</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="65"/>
+        <v>311</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>263</v>
       </c>
       <c r="I6" s="62" t="s">
         <v>274</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K6" s="64" t="s">
         <v>215</v>
@@ -5177,38 +5198,45 @@
       <c r="N6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O6" s="64" t="s">
-        <v>241</v>
+      <c r="O6" s="76" t="s">
+        <v>301</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32.4">
       <c r="A7" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66" t="s">
-        <v>376</v>
+        <v>209</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>263</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>274</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="64"/>
+        <v>215</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="M7" s="64" t="s">
         <v>245</v>
       </c>
@@ -5216,23 +5244,26 @@
         <v>245</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>375</v>
+        <v>241</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66" t="s">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>274</v>
@@ -5250,32 +5281,30 @@
       <c r="N8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="64"/>
-    </row>
-    <row r="9" spans="1:16" ht="33">
-      <c r="A9" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>411</v>
+      <c r="O8" s="64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>274</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="K9" s="64" t="s">
         <v>214</v>
@@ -5288,327 +5317,320 @@
         <v>245</v>
       </c>
       <c r="O9" s="64"/>
-      <c r="P9" s="62" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:16" ht="32.4">
       <c r="A10" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="65">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="66"/>
+        <v>302</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="62" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="65">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="65">
-        <v>330</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>189</v>
+        <v>320</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>188</v>
       </c>
       <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="65">
+        <v>330</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="66"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B14" s="65">
         <v>340</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C14" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" spans="1:16" ht="33">
-      <c r="A14" s="65" t="s">
+      <c r="F14" s="66"/>
+    </row>
+    <row r="15" spans="1:16" ht="32.4">
+      <c r="A15" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C15" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D15" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F15" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G15" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H15" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J15" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="P14" s="62" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="J15" s="42"/>
+      <c r="P15" s="62" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" s="66"/>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="F17" s="66"/>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="66"/>
       <c r="J18" s="42"/>
     </row>
-    <row r="19" spans="1:16" ht="33">
+    <row r="19" spans="1:16">
       <c r="A19" s="65" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="C19" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" ht="32.4">
+      <c r="A20" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D20" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F20" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G20" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J20" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="P19" s="62" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A20" s="73" t="s">
+      <c r="P20" s="62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A21" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C21" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D21" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E21" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F21" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G21" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H21" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I21" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J21" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K21" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="M20" s="64" t="s">
+      <c r="M21" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N21" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="O21" s="62" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A21" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="K21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:16" ht="39.6" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>292</v>
+        <v>429</v>
       </c>
       <c r="K22" s="64"/>
       <c r="M22" s="64"/>
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A23" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>292</v>
+      </c>
       <c r="K23" s="64"/>
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
     </row>
-    <row r="24" spans="1:16" ht="33">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:16" ht="39.6" customHeight="1">
+      <c r="K24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+    </row>
+    <row r="25" spans="1:16" ht="32.4">
+      <c r="A25" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C25" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D25" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E25" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G25" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H25" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I25" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J25" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="K25" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L25" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="M24" s="64" t="s">
+      <c r="M25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="N24" s="64" t="s">
+      <c r="N25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="62" t="s">
+      <c r="O25" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="P24" s="62" t="s">
+      <c r="P25" s="62" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="66">
-      <c r="A27" s="72" t="s">
+    <row r="28" spans="1:16" ht="64.8">
+      <c r="A28" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C28" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D28" s="67" t="s">
         <v>277</v>
-      </c>
-      <c r="E27" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="L27" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="M27" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="N27" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="O27" s="67" t="s">
-        <v>281</v>
-      </c>
-      <c r="P27" s="67" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="55.9" customHeight="1">
-      <c r="A28" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>278</v>
       </c>
       <c r="E28" s="67" t="s">
         <v>311</v>
@@ -5617,10 +5639,10 @@
         <v>266</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J28" s="62" t="s">
         <v>269</v>
@@ -5629,19 +5651,63 @@
         <v>215</v>
       </c>
       <c r="L28" s="67" t="s">
-        <v>280</v>
+        <v>432</v>
       </c>
       <c r="M28" s="62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="64" t="s">
         <v>245</v>
       </c>
       <c r="O28" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="P28" s="67" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="55.95" customHeight="1">
+      <c r="A29" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="I29" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="P28" s="67" t="s">
-        <v>435</v>
+      <c r="P29" s="67" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5660,29 +5726,29 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="62" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="62" customWidth="1"/>
     <col min="6" max="6" width="8" style="62" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.625" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="62" customWidth="1"/>
     <col min="12" max="12" width="15" style="62" customWidth="1"/>
-    <col min="13" max="13" width="21.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="62" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="62" customWidth="1"/>
     <col min="15" max="15" width="8" style="62" customWidth="1"/>
-    <col min="16" max="16" width="31.5" style="62" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" style="62" customWidth="1"/>
     <col min="17" max="17" width="53" style="62" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="62"/>
+    <col min="18" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="71" customFormat="1" ht="49.15" customHeight="1">
+    <row r="1" spans="1:17" s="71" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>220</v>
       </c>
@@ -5735,7 +5801,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="58.15" customHeight="1">
+    <row r="2" spans="1:17" ht="58.2" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>217</v>
       </c>
@@ -5775,7 +5841,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="49.5">
+    <row r="3" spans="1:17" ht="48.6">
       <c r="A3" s="74" t="s">
         <v>388</v>
       </c>
@@ -5793,7 +5859,7 @@
         <v>266</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>273</v>
@@ -5817,13 +5883,13 @@
         <v>245</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="67" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33">
+    <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="73" t="s">
         <v>200</v>
       </c>
@@ -5840,7 +5906,7 @@
         <v>266</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>273</v>
@@ -5864,13 +5930,13 @@
         <v>245</v>
       </c>
       <c r="P4" s="64" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="67" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="33">
+    <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="72" t="s">
         <v>210</v>
       </c>
@@ -5888,7 +5954,7 @@
         <v>266</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>273</v>
@@ -5918,7 +5984,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33">
+    <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="73" t="s">
         <v>199</v>
       </c>
@@ -5966,7 +6032,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="33">
+    <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="73" t="s">
         <v>209</v>
       </c>
@@ -6340,16 +6406,16 @@
         <v>398</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>265</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J21" s="62" t="s">
         <v>274</v>
@@ -6378,22 +6444,22 @@
         <v>296</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>293</v>
       </c>
       <c r="G22" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" s="62" t="s">
         <v>453</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>456</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>458</v>
       </c>
       <c r="J22" s="62" t="s">
         <v>274</v>
@@ -6425,10 +6491,10 @@
         <v>292</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J23" s="62" t="s">
         <v>274</v>
@@ -6445,7 +6511,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:17" ht="33">
+    <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="73" t="s">
         <v>290</v>
       </c>
@@ -6453,7 +6519,7 @@
         <v>257</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E25" s="67" t="s">
         <v>311</v>
@@ -6492,7 +6558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="66">
+    <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="72" t="s">
         <v>282</v>
       </c>
@@ -6539,7 +6605,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="55.9" customHeight="1">
+    <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="73" t="s">
         <v>251</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1899,21 +1899,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
-2:擔保放款、催收款項 : 撥款序號(3)
-3:會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
-4:暫收款－支票：支票帳號(9)-支票號碼(7) 
-5:未收帳管費：第一筆撥款序號(3) 
-6:未收契變手續費：契變日期(8,西元)+契變序號(02)
-7:未收、暫收、暫付、催收火險保費：原保單號碼(17)+批單號碼(1)
-8:暫付、催收法務費：記錄號碼(8)
-9:短繳期金：撥款序號(3)
-10:暫收款－借新還舊: 'FacmNo' + 額度編號(3)
-11:暫收款-冲正：''
-11:聯貸手續費:SL-費用項目(2)-流水號(3)-攤提年月(YYYMM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1:會計銷帳科目
 2:業務銷帳科目
 3:未收費用
@@ -1967,6 +1952,27 @@
     <t>CloseDate銷號日期 =0：未銷
 OverdueDate轉催收日&gt;0</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAV:暫收款－可抵繳:一個空白
+TAM:暫收款－AML戶 :一個空白
+TLD 暫收款－放款部專戶:一個空白
+T10 債協暫收款－收款專戶:一個空白
+T11 債協暫收款－抵繳款:一個空白
+T12 前調暫收款－抵繳款:一個空白
+T13 更生暫收款－抵繳款:一個空白
+310,320,330,340,990:擔保放款、催收款項 : 撥款序號(3)
+TCK:暫收款－支票：支票帳號(9)-支票號碼(7) 
+F10:未收帳管費：第一筆撥款序號(3) 
+F12:未收企金帳管費：SL-費用項目(2)-流水號(3)+攤提年月(YYYMM)
+F27:未收聯貸管理費：SL-費用項目(2)-流水號(3)+攤提年月(YYYMM) 
+TSL:暫收款－費用攤提:SL-費用項目(2)-流水號(3)-攤提年月(YYYMM)
+F29:未收契變手續費：契變日期(8,西元)+契變序號(02)
+TMI,F09,F25:未收、暫付、催收火險保費：原保單號碼(17)+批單號碼(17)
+F07,F24:暫付、催收法務費：記錄號碼(8)
+Z10,Z20,Z30,Z40,IC1,IC2,IC3,IC4:短繳期金：撥款序號(3)-交易檔內容序號
+TRO:暫收款－展期/借新還舊: 'FacmNo' + 額度編號(3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3037,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3227,7 +3233,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="194.4">
+    <row r="12" spans="1:7" ht="291.60000000000002">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3242,11 +3248,11 @@
         <v>12</v>
       </c>
       <c r="E12" s="22">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="25" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3418,7 +3424,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3906,8 +3912,8 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4905,9 +4911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -5023,7 +5029,7 @@
         <v>352</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="81">
@@ -5035,10 +5041,10 @@
         <v>267</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>266</v>
@@ -5068,7 +5074,7 @@
         <v>352</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.4">
@@ -5082,7 +5088,7 @@
         <v>239</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G4" s="62" t="s">
         <v>266</v>
@@ -5112,7 +5118,7 @@
         <v>353</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="32.4">
@@ -5157,7 +5163,7 @@
         <v>240</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="32.4">
@@ -5202,7 +5208,7 @@
         <v>301</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4">
@@ -5247,7 +5253,7 @@
         <v>241</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:16">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0D962-47E7-49C3-9218-BFBE5FD54877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">業務檔對應!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="477">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1974,11 +1975,15 @@
 TRO:暫收款－展期/借新還舊: 'FacmNo' + 額度編號(3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>AcctCode,ClsFlag,CustNo,FacmNo,RvNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2381,7 +2386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2644,6 +2649,12 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2671,9 +2682,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2755,9 +2766,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2795,9 +2806,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2832,7 +2843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,7 +2878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3040,11 +3051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3059,10 +3070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="7" t="s">
         <v>458</v>
       </c>
@@ -3074,8 +3085,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3087,10 +3098,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
@@ -3102,10 +3113,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="9"/>
@@ -3113,10 +3124,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
@@ -3126,10 +3137,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -3142,8 +3153,10 @@
       <c r="A7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9"/>
       <c r="F7" s="14"/>
@@ -3892,10 +3905,9 @@
       <c r="E48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -3908,7 +3920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -4163,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4318,7 +4330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,17 +4388,17 @@
       <c r="A9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="92" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="P9" s="94"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="35"/>
@@ -4838,22 +4850,22 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="90">
+      <c r="A85" s="92">
         <v>1</v>
       </c>
       <c r="B85" s="39">
         <v>3</v>
       </c>
-      <c r="C85" s="90">
+      <c r="C85" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="91"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="40">
         <v>4</v>
       </c>
-      <c r="C86" s="91"/>
+      <c r="C86" s="93"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="41">
@@ -4908,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -5717,7 +5729,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5725,7 +5737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0D962-47E7-49C3-9218-BFBE5FD54877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B048C6-2628-4746-B4AB-4BA9B014AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2658,10 +2658,10 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3054,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3098,10 +3098,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="A4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="9"/>
@@ -3124,10 +3124,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="18">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -3906,12 +3906,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B048C6-2628-4746-B4AB-4BA9B014AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A65EEB-56D2-4356-8EB3-C49FB3326364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="479">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1977,6 +1977,14 @@
   </si>
   <si>
     <t>AcctCode,ClsFlag,CustNo,FacmNo,RvNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode,CustNo,FacmNo,ClsFlag,RvNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3052,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3163,315 +3171,306 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="86" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="18">
-        <f>A9+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>344</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="E10" s="22">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="28" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A24" si="0">A10+1</f>
-        <v>3</v>
+        <f>A10+1</f>
+        <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="291.60000000000002">
+    <row r="12" spans="1:7">
       <c r="A12" s="18">
+        <f t="shared" ref="A12:A25" si="0">A11+1</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="291.60000000000002">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
         <v>40</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="25" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
+    <row r="14" spans="1:7">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>11</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1">
-      <c r="A14" s="18">
+    <row r="15" spans="1:7" s="32" customFormat="1">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D15" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E15" s="29">
         <v>5</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="5" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18">
+    <row r="16" spans="1:7">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>2</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="28" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1">
-      <c r="A16" s="18">
+    <row r="17" spans="1:7" s="20" customFormat="1">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E17" s="18">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>3</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="32.4">
-      <c r="A18" s="18">
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.4">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <v>1</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="32" customFormat="1" ht="32.4">
-      <c r="A19" s="18">
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="32.4">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="32" customFormat="1" ht="81">
-      <c r="A20" s="18">
+    <row r="21" spans="1:7" s="32" customFormat="1" ht="81">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="34" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="34" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="22">
-        <v>16</v>
-      </c>
-      <c r="F21" s="21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3482,20 +3481,18 @@
       <c r="F22" s="21">
         <v>2</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>461</v>
-      </c>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>31</v>
+        <v>427</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -3506,205 +3503,207 @@
       <c r="F23" s="21">
         <v>2</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="22">
         <v>16</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="22">
         <v>80</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="18">
-        <f t="shared" ref="A25:A42" si="1">A24+1</f>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.4">
+      <c r="A26" s="18">
+        <f t="shared" ref="A26:A43" si="1">A25+1</f>
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="18">
         <v>3</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="32.4">
-      <c r="A26" s="24">
+    <row r="27" spans="1:7" s="82" customFormat="1" ht="32.4">
+      <c r="A27" s="24">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B27" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C27" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D27" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E27" s="80">
         <v>3</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="81" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="81" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="48.6">
-      <c r="A27" s="18">
+    <row r="28" spans="1:7" ht="48.6">
+      <c r="A28" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="22">
         <v>8</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="5" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="18">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>370</v>
-      </c>
-      <c r="E28" s="85">
-        <v>5</v>
-      </c>
-      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="E29" s="85">
-        <v>4</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>370</v>
+        <v>51</v>
       </c>
       <c r="E30" s="85">
-        <v>6</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
       <c r="E31" s="85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="22">
+        <v>23</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="85">
         <v>8</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21" t="s">
-        <v>462</v>
-      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>60</v>
@@ -3714,47 +3713,47 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E34" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="18">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
@@ -3764,19 +3763,19 @@
     <row r="36" spans="1:7">
       <c r="A36" s="18">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
@@ -3786,19 +3785,19 @@
     <row r="37" spans="1:7">
       <c r="A37" s="18">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="s">
@@ -3808,101 +3807,123 @@
     <row r="38" spans="1:7">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>160</v>
+        <v>29</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="18">
-        <v>2000</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="E38" s="22">
+        <v>8</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="22">
-        <v>6</v>
-      </c>
+      <c r="E39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="27"/>
       <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="22">
+        <v>6</v>
+      </c>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="24">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="18">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B43" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C43" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D43" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A65EEB-56D2-4356-8EB3-C49FB3326364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B58A84B-8ACD-49A6-933E-3749815046F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>備註說明</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RvNo</t>
@@ -1986,6 +1982,9 @@
   <si>
     <t>AcctCode,CustNo,FacmNo,ClsFlag,RvNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -3062,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3083,10 +3082,10 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -3111,7 +3110,7 @@
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>18</v>
@@ -3137,7 +3136,7 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="9"/>
@@ -3150,7 +3149,7 @@
       </c>
       <c r="B6" s="89"/>
       <c r="C6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="9"/>
@@ -3163,7 +3162,7 @@
       </c>
       <c r="B7" s="87"/>
       <c r="C7" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9"/>
@@ -3172,11 +3171,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="87"/>
       <c r="C8" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -3211,20 +3210,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="E10" s="22">
         <v>3</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3233,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>20</v>
@@ -3253,10 +3252,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>19</v>
@@ -3273,10 +3272,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -3286,7 +3285,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3298,7 +3297,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
@@ -3308,7 +3307,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="32" customFormat="1">
@@ -3317,20 +3316,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="E15" s="29">
         <v>5</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3339,20 +3338,20 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="18">
         <v>2</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1">
@@ -3401,20 +3400,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -3423,20 +3422,20 @@
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="22">
         <v>1</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="32" customFormat="1" ht="81">
@@ -3445,20 +3444,20 @@
         <v>12</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="22">
         <v>1</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3470,7 +3469,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -3489,10 +3488,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>427</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -3504,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3535,10 +3534,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>41</v>
@@ -3555,20 +3554,20 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="18">
         <v>3</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="82" customFormat="1" ht="32.4">
@@ -3577,20 +3576,20 @@
         <v>18</v>
       </c>
       <c r="B27" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>332</v>
-      </c>
       <c r="D27" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="80">
         <v>3</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48.6">
@@ -3599,20 +3598,20 @@
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="22">
         <v>8</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3621,13 +3620,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E29" s="85">
         <v>5</v>
@@ -3640,13 +3639,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="85">
         <v>4</v>
@@ -3660,13 +3659,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E31" s="85">
         <v>6</v>
@@ -3680,13 +3679,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="85">
         <v>8</v>
@@ -3700,20 +3699,20 @@
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>460</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="22">
         <v>8</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3728,14 +3727,14 @@
         <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="22">
         <v>8</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3744,7 +3743,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>35</v>
@@ -3757,7 +3756,7 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3766,7 +3765,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>14</v>
@@ -3779,7 +3778,7 @@
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3801,7 +3800,7 @@
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3823,7 +3822,7 @@
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3832,10 +3831,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>12</v>
@@ -3877,7 +3876,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>48</v>
+        <v>478</v>
       </c>
       <c r="E41" s="24"/>
     </row>
@@ -3911,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>48</v>
+        <v>478</v>
       </c>
       <c r="E43" s="24"/>
     </row>
@@ -3970,222 +3969,222 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="C11" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32.4">
       <c r="A19" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32.4">
       <c r="A20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4215,12 +4214,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4246,7 +4245,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="32" customFormat="1" ht="164.4" customHeight="1">
@@ -4254,10 +4253,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>12</v>
@@ -4267,10 +4266,10 @@
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="32" customFormat="1" ht="78" customHeight="1">
@@ -4278,23 +4277,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>318</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="29">
         <v>1</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="32" customFormat="1" ht="24.6" customHeight="1">
@@ -4302,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>12</v>
@@ -4315,10 +4314,10 @@
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4326,20 +4325,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>442</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>443</v>
       </c>
       <c r="F9" s="29">
         <v>6</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I9" s="32"/>
     </row>
@@ -4371,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4382,67 +4381,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
       <c r="M9" s="95"/>
       <c r="N9" s="96"/>
       <c r="O9" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P9" s="96"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="35"/>
       <c r="J10" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O10" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4454,13 +4453,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="50">
         <v>300000</v>
@@ -4469,24 +4468,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L13" s="50">
         <v>500000</v>
@@ -4495,18 +4494,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="52"/>
@@ -4516,7 +4515,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="51"/>
       <c r="K15" s="52"/>
@@ -4526,7 +4525,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="51"/>
       <c r="K16" s="49"/>
@@ -4534,15 +4533,15 @@
       <c r="M16" s="50"/>
       <c r="N16" s="47"/>
       <c r="O16" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="49"/>
@@ -4550,15 +4549,15 @@
       <c r="M17" s="50"/>
       <c r="N17" s="47"/>
       <c r="O17" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P17" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="53"/>
       <c r="K18" s="54"/>
@@ -4566,10 +4565,10 @@
       <c r="M18" s="55"/>
       <c r="N18" s="56"/>
       <c r="O18" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P18" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4583,7 +4582,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4591,177 +4590,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4775,7 +4774,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4783,67 +4782,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4851,23 +4850,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="C84" s="38" t="s">
         <v>135</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4972,618 +4971,618 @@
   <sheetData>
     <row r="1" spans="1:16" s="71" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="48.6">
       <c r="A2" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J2" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="69" t="s">
-        <v>214</v>
-      </c>
       <c r="L2" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M2" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="81">
       <c r="A3" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J3" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="69" t="s">
-        <v>214</v>
-      </c>
       <c r="L3" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N3" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.4">
       <c r="A4" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I4" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M4" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N4" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="32.4">
       <c r="A5" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="32.4">
       <c r="A6" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="M6" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="N6" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O6" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.4">
       <c r="A7" s="73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="N7" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J8" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="64" t="s">
         <v>213</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>214</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N8" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J9" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="64" t="s">
         <v>213</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>214</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N9" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O9" s="64"/>
     </row>
     <row r="10" spans="1:16" ht="32.4">
       <c r="A10" s="65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>411</v>
-      </c>
       <c r="I10" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N10" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="65">
         <v>310</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="65">
         <v>320</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="65">
         <v>330</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="65">
         <v>340</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="32.4">
       <c r="A15" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>304</v>
-      </c>
       <c r="D15" s="67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F15" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="G15" s="62" t="s">
-        <v>414</v>
-      </c>
       <c r="H15" s="62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P15" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="66"/>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="66"/>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="66"/>
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" s="66"/>
       <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:16" ht="32.4">
       <c r="A20" s="65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P20" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39.6" customHeight="1">
       <c r="A21" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>259</v>
-      </c>
       <c r="I21" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M21" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="39.6" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K22" s="64"/>
       <c r="M22" s="64"/>
@@ -5591,22 +5590,22 @@
     </row>
     <row r="23" spans="1:16" ht="39.6" customHeight="1">
       <c r="A23" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K23" s="64"/>
       <c r="M23" s="64"/>
@@ -5619,134 +5618,134 @@
     </row>
     <row r="25" spans="1:16" ht="32.4">
       <c r="A25" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O25" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P25" s="62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="64.8">
       <c r="A28" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>283</v>
-      </c>
       <c r="D28" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" s="67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M28" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N28" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O28" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P28" s="67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="55.95" customHeight="1">
       <c r="A29" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>252</v>
-      </c>
       <c r="D29" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I29" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L29" s="67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M29" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N29" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O29" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P29" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5789,722 +5788,722 @@
   <sheetData>
     <row r="1" spans="1:17" s="71" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="58.2" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="F2" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>226</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="N2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="48.6">
       <c r="A3" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I3" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K3" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>214</v>
-      </c>
       <c r="M3" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N3" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q3" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I4" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J4" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K4" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N4" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P4" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I5" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K5" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K6" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="N6" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="O6" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="67" t="s">
         <v>245</v>
-      </c>
-      <c r="O6" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="P6" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K7" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M7" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="N7" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="O7" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" s="66" t="s">
+      <c r="G8" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="66" t="s">
-        <v>289</v>
-      </c>
       <c r="H8" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I8" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J8" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K8" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>213</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>214</v>
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F9" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>289</v>
-      </c>
       <c r="H9" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I9" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K9" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="64" t="s">
         <v>213</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>214</v>
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I10" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J10" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K10" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O10" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="65">
         <v>310</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G11" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="65">
         <v>320</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="65">
         <v>330</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="65">
         <v>340</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G14" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>304</v>
       </c>
       <c r="F15" s="66"/>
       <c r="K15" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G17" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G18" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="K18" s="42"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="D20" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="K20" s="62" t="s">
         <v>327</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="K20" s="62" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K21" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P21" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="F22" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>448</v>
-      </c>
       <c r="H22" s="62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K22" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L22" s="64"/>
       <c r="N22" s="64"/>
@@ -6512,34 +6511,34 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H23" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="I23" s="62" t="s">
         <v>452</v>
       </c>
-      <c r="I23" s="62" t="s">
-        <v>453</v>
-      </c>
       <c r="J23" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K23" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L23" s="64"/>
       <c r="N23" s="64"/>
@@ -6552,143 +6551,143 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>274</v>
-      </c>
       <c r="K25" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M25" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P25" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>283</v>
-      </c>
       <c r="D28" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M28" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N28" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P28" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q28" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>252</v>
-      </c>
       <c r="D29" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I29" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M29" s="67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N29" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O29" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P29" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
